--- a/gn_cluster10.xlsx
+++ b/gn_cluster10.xlsx
@@ -28,3043 +28,3052 @@
     <t>A111221222</t>
   </si>
   <si>
+    <t>B211221211</t>
+  </si>
+  <si>
+    <t>B221221111</t>
+  </si>
+  <si>
     <t>A221211221</t>
   </si>
   <si>
-    <t>B221221111</t>
-  </si>
-  <si>
-    <t>B211221211</t>
+    <t>B111122211</t>
+  </si>
+  <si>
+    <t>B121212121</t>
   </si>
   <si>
     <t>A221221211</t>
   </si>
   <si>
+    <t>A122122222</t>
+  </si>
+  <si>
+    <t>B221222212</t>
+  </si>
+  <si>
+    <t>B111211121</t>
+  </si>
+  <si>
+    <t>A121122112</t>
+  </si>
+  <si>
+    <t>B111222121</t>
+  </si>
+  <si>
+    <t>A111222211</t>
+  </si>
+  <si>
+    <t>A222122111</t>
+  </si>
+  <si>
+    <t>A212111111</t>
+  </si>
+  <si>
+    <t>B212122121</t>
+  </si>
+  <si>
     <t>B221211112</t>
   </si>
   <si>
-    <t>A122122222</t>
-  </si>
-  <si>
-    <t>B212122121</t>
-  </si>
-  <si>
-    <t>B111222121</t>
-  </si>
-  <si>
-    <t>A111222211</t>
-  </si>
-  <si>
-    <t>A222122111</t>
-  </si>
-  <si>
-    <t>B221222212</t>
-  </si>
-  <si>
-    <t>B121212121</t>
-  </si>
-  <si>
-    <t>A121122112</t>
-  </si>
-  <si>
-    <t>A212111111</t>
-  </si>
-  <si>
-    <t>B111211121</t>
+    <t>A212122211</t>
+  </si>
+  <si>
+    <t>B122222211</t>
+  </si>
+  <si>
+    <t>A222212112</t>
+  </si>
+  <si>
+    <t>B112221112</t>
+  </si>
+  <si>
+    <t>A112212111</t>
+  </si>
+  <si>
+    <t>A222221211</t>
+  </si>
+  <si>
+    <t>B111121111</t>
+  </si>
+  <si>
+    <t>B112221121</t>
+  </si>
+  <si>
+    <t>B222211122</t>
+  </si>
+  <si>
+    <t>A221121121</t>
+  </si>
+  <si>
+    <t>B212212221</t>
   </si>
   <si>
     <t>A122221122</t>
   </si>
   <si>
+    <t>B112122211</t>
+  </si>
+  <si>
+    <t>A221121112</t>
+  </si>
+  <si>
+    <t>A212212112</t>
+  </si>
+  <si>
+    <t>A221221111</t>
+  </si>
+  <si>
+    <t>A212112212</t>
+  </si>
+  <si>
+    <t>B221112211</t>
+  </si>
+  <si>
+    <t>A111112221</t>
+  </si>
+  <si>
+    <t>A112211122</t>
+  </si>
+  <si>
+    <t>B211112211</t>
+  </si>
+  <si>
+    <t>B111122121</t>
+  </si>
+  <si>
     <t>B122222221</t>
   </si>
   <si>
-    <t>A212212112</t>
-  </si>
-  <si>
-    <t>B222211122</t>
-  </si>
-  <si>
-    <t>A111112221</t>
-  </si>
-  <si>
-    <t>B111122121</t>
-  </si>
-  <si>
-    <t>B112221112</t>
-  </si>
-  <si>
-    <t>B111122211</t>
-  </si>
-  <si>
-    <t>B112221121</t>
-  </si>
-  <si>
-    <t>A212122211</t>
-  </si>
-  <si>
-    <t>B211112211</t>
-  </si>
-  <si>
-    <t>A222212112</t>
-  </si>
-  <si>
-    <t>A112212111</t>
-  </si>
-  <si>
-    <t>B112122211</t>
-  </si>
-  <si>
-    <t>A221121121</t>
-  </si>
-  <si>
-    <t>A222221211</t>
-  </si>
-  <si>
-    <t>B212212221</t>
-  </si>
-  <si>
-    <t>B122222211</t>
-  </si>
-  <si>
-    <t>A112211122</t>
-  </si>
-  <si>
-    <t>B111121111</t>
-  </si>
-  <si>
-    <t>A221121112</t>
-  </si>
-  <si>
-    <t>B221112211</t>
-  </si>
-  <si>
-    <t>A221221111</t>
-  </si>
-  <si>
-    <t>A212112212</t>
+    <t>A212212121</t>
+  </si>
+  <si>
+    <t>B111211221</t>
+  </si>
+  <si>
+    <t>A111122111</t>
+  </si>
+  <si>
+    <t>B122112222</t>
+  </si>
+  <si>
+    <t>A212121211</t>
+  </si>
+  <si>
+    <t>B212122222</t>
+  </si>
+  <si>
+    <t>B111121112</t>
+  </si>
+  <si>
+    <t>B122212111</t>
+  </si>
+  <si>
+    <t>B122111112</t>
+  </si>
+  <si>
+    <t>B121221212</t>
+  </si>
+  <si>
+    <t>A221222211</t>
+  </si>
+  <si>
+    <t>B121221112</t>
+  </si>
+  <si>
+    <t>A212222112</t>
+  </si>
+  <si>
+    <t>B221222222</t>
+  </si>
+  <si>
+    <t>B111221222</t>
+  </si>
+  <si>
+    <t>B222122111</t>
+  </si>
+  <si>
+    <t>B111112222</t>
+  </si>
+  <si>
+    <t>B111112122</t>
+  </si>
+  <si>
+    <t>B211111222</t>
+  </si>
+  <si>
+    <t>A111221211</t>
+  </si>
+  <si>
+    <t>A112222212</t>
+  </si>
+  <si>
+    <t>B112222222</t>
+  </si>
+  <si>
+    <t>A121221112</t>
+  </si>
+  <si>
+    <t>A112122212</t>
+  </si>
+  <si>
+    <t>A222112222</t>
+  </si>
+  <si>
+    <t>A122222112</t>
+  </si>
+  <si>
+    <t>B122212221</t>
+  </si>
+  <si>
+    <t>B221212122</t>
+  </si>
+  <si>
+    <t>B212211212</t>
+  </si>
+  <si>
+    <t>A111121221</t>
+  </si>
+  <si>
+    <t>B112112122</t>
+  </si>
+  <si>
+    <t>A112111222</t>
+  </si>
+  <si>
+    <t>A112122121</t>
+  </si>
+  <si>
+    <t>A211222221</t>
   </si>
   <si>
     <t>B212221222</t>
   </si>
   <si>
-    <t>B111112122</t>
-  </si>
-  <si>
-    <t>B111112222</t>
-  </si>
-  <si>
-    <t>A112111222</t>
-  </si>
-  <si>
-    <t>B111211221</t>
-  </si>
-  <si>
-    <t>B122212221</t>
+    <t>B222221222</t>
+  </si>
+  <si>
+    <t>A112122221</t>
   </si>
   <si>
     <t>A121111112</t>
   </si>
   <si>
-    <t>A212121211</t>
-  </si>
-  <si>
-    <t>B112112122</t>
-  </si>
-  <si>
-    <t>B122111112</t>
-  </si>
-  <si>
-    <t>A212212121</t>
-  </si>
-  <si>
-    <t>B112222222</t>
-  </si>
-  <si>
-    <t>B221222222</t>
-  </si>
-  <si>
-    <t>B222122111</t>
-  </si>
-  <si>
-    <t>B122112222</t>
-  </si>
-  <si>
-    <t>B111121112</t>
-  </si>
-  <si>
-    <t>A112122221</t>
-  </si>
-  <si>
-    <t>B111221222</t>
-  </si>
-  <si>
-    <t>B212211212</t>
-  </si>
-  <si>
-    <t>B211111222</t>
-  </si>
-  <si>
-    <t>A121221112</t>
-  </si>
-  <si>
-    <t>B212122222</t>
-  </si>
-  <si>
-    <t>A222112222</t>
-  </si>
-  <si>
-    <t>A122222112</t>
-  </si>
-  <si>
-    <t>A111122111</t>
-  </si>
-  <si>
-    <t>A112222212</t>
-  </si>
-  <si>
-    <t>A112122121</t>
-  </si>
-  <si>
-    <t>B221212122</t>
-  </si>
-  <si>
-    <t>A221222211</t>
-  </si>
-  <si>
-    <t>A211222221</t>
-  </si>
-  <si>
-    <t>B122212111</t>
-  </si>
-  <si>
-    <t>B222221222</t>
-  </si>
-  <si>
-    <t>B121221212</t>
-  </si>
-  <si>
-    <t>A212222112</t>
-  </si>
-  <si>
-    <t>B121221112</t>
-  </si>
-  <si>
-    <t>A111221211</t>
-  </si>
-  <si>
-    <t>A111121221</t>
-  </si>
-  <si>
-    <t>A112122212</t>
+    <t>B221221112</t>
+  </si>
+  <si>
+    <t>B121122212</t>
+  </si>
+  <si>
+    <t>B111111111</t>
+  </si>
+  <si>
+    <t>A222112221</t>
+  </si>
+  <si>
+    <t>A112112122</t>
+  </si>
+  <si>
+    <t>A211221221</t>
+  </si>
+  <si>
+    <t>A222222221</t>
+  </si>
+  <si>
+    <t>B211212112</t>
+  </si>
+  <si>
+    <t>A122121122</t>
+  </si>
+  <si>
+    <t>B112112221</t>
+  </si>
+  <si>
+    <t>B222222221</t>
+  </si>
+  <si>
+    <t>B222122222</t>
+  </si>
+  <si>
+    <t>B122221211</t>
+  </si>
+  <si>
+    <t>A122212211</t>
+  </si>
+  <si>
+    <t>A212121112</t>
+  </si>
+  <si>
+    <t>B211111211</t>
+  </si>
+  <si>
+    <t>A222112211</t>
+  </si>
+  <si>
+    <t>B212212111</t>
+  </si>
+  <si>
+    <t>B222112222</t>
+  </si>
+  <si>
+    <t>A112122122</t>
+  </si>
+  <si>
+    <t>B211122211</t>
+  </si>
+  <si>
+    <t>B122112121</t>
+  </si>
+  <si>
+    <t>B122111211</t>
+  </si>
+  <si>
+    <t>B112221222</t>
+  </si>
+  <si>
+    <t>A112212122</t>
+  </si>
+  <si>
+    <t>B221111112</t>
+  </si>
+  <si>
+    <t>A221122112</t>
+  </si>
+  <si>
+    <t>A222222112</t>
+  </si>
+  <si>
+    <t>B211221112</t>
+  </si>
+  <si>
+    <t>B222211111</t>
+  </si>
+  <si>
+    <t>A211112211</t>
+  </si>
+  <si>
+    <t>A111121211</t>
+  </si>
+  <si>
+    <t>A212112111</t>
+  </si>
+  <si>
+    <t>B211211111</t>
+  </si>
+  <si>
+    <t>A111212212</t>
+  </si>
+  <si>
+    <t>A122121112</t>
+  </si>
+  <si>
+    <t>B211212212</t>
+  </si>
+  <si>
+    <t>B121221221</t>
+  </si>
+  <si>
+    <t>A121212222</t>
+  </si>
+  <si>
+    <t>B221112212</t>
+  </si>
+  <si>
+    <t>A222121222</t>
+  </si>
+  <si>
+    <t>B212221211</t>
+  </si>
+  <si>
+    <t>B111112111</t>
   </si>
   <si>
     <t>A221121212</t>
   </si>
   <si>
+    <t>A212211212</t>
+  </si>
+  <si>
+    <t>A222221112</t>
+  </si>
+  <si>
+    <t>A212211222</t>
+  </si>
+  <si>
+    <t>B111112221</t>
+  </si>
+  <si>
+    <t>A211111121</t>
+  </si>
+  <si>
+    <t>A212212212</t>
+  </si>
+  <si>
+    <t>A112221212</t>
+  </si>
+  <si>
+    <t>A122221222</t>
+  </si>
+  <si>
+    <t>B121122221</t>
+  </si>
+  <si>
+    <t>A222111211</t>
+  </si>
+  <si>
+    <t>B212121122</t>
+  </si>
+  <si>
+    <t>B211222111</t>
+  </si>
+  <si>
+    <t>A122221221</t>
+  </si>
+  <si>
+    <t>B112112212</t>
+  </si>
+  <si>
     <t>A122121222</t>
   </si>
   <si>
-    <t>A122121112</t>
-  </si>
-  <si>
-    <t>B221111112</t>
+    <t>A112211112</t>
+  </si>
+  <si>
+    <t>B111121121</t>
+  </si>
+  <si>
+    <t>B122211211</t>
   </si>
   <si>
     <t>B211221221</t>
   </si>
   <si>
-    <t>A112112122</t>
-  </si>
-  <si>
-    <t>B221221112</t>
-  </si>
-  <si>
-    <t>A222222221</t>
+    <t>A112112121</t>
+  </si>
+  <si>
+    <t>A211111122</t>
+  </si>
+  <si>
+    <t>B111211111</t>
   </si>
   <si>
     <t>A211111222</t>
   </si>
   <si>
-    <t>A222221112</t>
-  </si>
-  <si>
-    <t>B121122212</t>
-  </si>
-  <si>
-    <t>B212212111</t>
-  </si>
-  <si>
-    <t>B222122222</t>
-  </si>
-  <si>
-    <t>A111121211</t>
-  </si>
-  <si>
-    <t>B211212212</t>
-  </si>
-  <si>
-    <t>A222111211</t>
-  </si>
-  <si>
-    <t>B112112212</t>
-  </si>
-  <si>
-    <t>A212212212</t>
-  </si>
-  <si>
-    <t>A112211112</t>
-  </si>
-  <si>
-    <t>A112122122</t>
-  </si>
-  <si>
-    <t>A122212211</t>
-  </si>
-  <si>
-    <t>A122221222</t>
-  </si>
-  <si>
-    <t>A112112121</t>
-  </si>
-  <si>
-    <t>B122112121</t>
-  </si>
-  <si>
-    <t>A211111122</t>
-  </si>
-  <si>
-    <t>A111212212</t>
-  </si>
-  <si>
-    <t>B111112111</t>
-  </si>
-  <si>
-    <t>B211111211</t>
-  </si>
-  <si>
-    <t>A212211222</t>
-  </si>
-  <si>
-    <t>B211211111</t>
-  </si>
-  <si>
-    <t>A122121122</t>
-  </si>
-  <si>
-    <t>B122211211</t>
-  </si>
-  <si>
-    <t>A112212122</t>
-  </si>
-  <si>
-    <t>B211212112</t>
-  </si>
-  <si>
-    <t>B121122221</t>
-  </si>
-  <si>
-    <t>B212121122</t>
-  </si>
-  <si>
-    <t>B111111111</t>
-  </si>
-  <si>
-    <t>B112112221</t>
-  </si>
-  <si>
-    <t>B222211111</t>
+    <t>B112222121</t>
   </si>
   <si>
     <t>B122112112</t>
   </si>
   <si>
-    <t>B221112212</t>
-  </si>
-  <si>
-    <t>A211111121</t>
-  </si>
-  <si>
-    <t>A122221221</t>
-  </si>
-  <si>
-    <t>B211221112</t>
-  </si>
-  <si>
-    <t>A222112221</t>
-  </si>
-  <si>
-    <t>A222112211</t>
-  </si>
-  <si>
-    <t>B212221211</t>
-  </si>
-  <si>
-    <t>B112222121</t>
-  </si>
-  <si>
-    <t>A121212222</t>
-  </si>
-  <si>
-    <t>B111112221</t>
-  </si>
-  <si>
-    <t>A211112211</t>
-  </si>
-  <si>
-    <t>A221122112</t>
-  </si>
-  <si>
-    <t>A112221212</t>
-  </si>
-  <si>
-    <t>B222222221</t>
-  </si>
-  <si>
-    <t>B111211111</t>
-  </si>
-  <si>
-    <t>A212211212</t>
-  </si>
-  <si>
-    <t>B122111211</t>
-  </si>
-  <si>
-    <t>B121221221</t>
-  </si>
-  <si>
-    <t>B211122211</t>
-  </si>
-  <si>
-    <t>B122221211</t>
-  </si>
-  <si>
-    <t>A222222112</t>
-  </si>
-  <si>
-    <t>B111121121</t>
-  </si>
-  <si>
-    <t>A212112111</t>
-  </si>
-  <si>
-    <t>B211222111</t>
-  </si>
-  <si>
-    <t>A212121112</t>
-  </si>
-  <si>
-    <t>A222121222</t>
-  </si>
-  <si>
-    <t>B222112222</t>
-  </si>
-  <si>
-    <t>B112221222</t>
+    <t>B111222222</t>
+  </si>
+  <si>
+    <t>A212122222</t>
+  </si>
+  <si>
+    <t>A111221121</t>
+  </si>
+  <si>
+    <t>B121121211</t>
+  </si>
+  <si>
+    <t>A111222121</t>
+  </si>
+  <si>
+    <t>B212222211</t>
+  </si>
+  <si>
+    <t>A211112221</t>
+  </si>
+  <si>
+    <t>B212211222</t>
+  </si>
+  <si>
+    <t>B122121222</t>
+  </si>
+  <si>
+    <t>A111221212</t>
+  </si>
+  <si>
+    <t>A222122212</t>
+  </si>
+  <si>
+    <t>B221121111</t>
+  </si>
+  <si>
+    <t>B112121111</t>
+  </si>
+  <si>
+    <t>A121111121</t>
+  </si>
+  <si>
+    <t>A211121221</t>
+  </si>
+  <si>
+    <t>A212222221</t>
+  </si>
+  <si>
+    <t>B112122111</t>
+  </si>
+  <si>
+    <t>A211112222</t>
+  </si>
+  <si>
+    <t>A121112112</t>
+  </si>
+  <si>
+    <t>A222121112</t>
+  </si>
+  <si>
+    <t>B121221222</t>
+  </si>
+  <si>
+    <t>A212221212</t>
+  </si>
+  <si>
+    <t>B221221121</t>
+  </si>
+  <si>
+    <t>B122111221</t>
+  </si>
+  <si>
+    <t>A111221111</t>
+  </si>
+  <si>
+    <t>B222212121</t>
+  </si>
+  <si>
+    <t>B212222212</t>
+  </si>
+  <si>
+    <t>A112122211</t>
+  </si>
+  <si>
+    <t>B112112111</t>
+  </si>
+  <si>
+    <t>B221122221</t>
+  </si>
+  <si>
+    <t>B212122111</t>
+  </si>
+  <si>
+    <t>A112221222</t>
+  </si>
+  <si>
+    <t>A121121212</t>
+  </si>
+  <si>
+    <t>B222111122</t>
+  </si>
+  <si>
+    <t>A111221112</t>
+  </si>
+  <si>
+    <t>A121112211</t>
+  </si>
+  <si>
+    <t>B222221211</t>
+  </si>
+  <si>
+    <t>B112212111</t>
+  </si>
+  <si>
+    <t>A121212212</t>
+  </si>
+  <si>
+    <t>A112121121</t>
+  </si>
+  <si>
+    <t>B221121212</t>
+  </si>
+  <si>
+    <t>A121121222</t>
+  </si>
+  <si>
+    <t>A111121222</t>
+  </si>
+  <si>
+    <t>A212222222</t>
+  </si>
+  <si>
+    <t>B111121211</t>
+  </si>
+  <si>
+    <t>B211211221</t>
+  </si>
+  <si>
+    <t>A222112212</t>
+  </si>
+  <si>
+    <t>B112112112</t>
+  </si>
+  <si>
+    <t>B111211122</t>
+  </si>
+  <si>
+    <t>B122221122</t>
+  </si>
+  <si>
+    <t>B222112122</t>
+  </si>
+  <si>
+    <t>B212212222</t>
+  </si>
+  <si>
+    <t>A212111121</t>
+  </si>
+  <si>
+    <t>B122211121</t>
+  </si>
+  <si>
+    <t>B211111212</t>
+  </si>
+  <si>
+    <t>A112112221</t>
+  </si>
+  <si>
+    <t>A122111211</t>
+  </si>
+  <si>
+    <t>A111211111</t>
+  </si>
+  <si>
+    <t>B221111221</t>
+  </si>
+  <si>
+    <t>A212122112</t>
+  </si>
+  <si>
+    <t>A211111112</t>
+  </si>
+  <si>
+    <t>B211112122</t>
+  </si>
+  <si>
+    <t>B122112211</t>
+  </si>
+  <si>
+    <t>B122222111</t>
+  </si>
+  <si>
+    <t>A211221111</t>
+  </si>
+  <si>
+    <t>B211111221</t>
+  </si>
+  <si>
+    <t>B112122222</t>
+  </si>
+  <si>
+    <t>A121212122</t>
+  </si>
+  <si>
+    <t>A212121111</t>
+  </si>
+  <si>
+    <t>B121211221</t>
+  </si>
+  <si>
+    <t>B111221121</t>
+  </si>
+  <si>
+    <t>B212221112</t>
+  </si>
+  <si>
+    <t>B222222112</t>
+  </si>
+  <si>
+    <t>A221121122</t>
+  </si>
+  <si>
+    <t>A122122122</t>
+  </si>
+  <si>
+    <t>A211121112</t>
+  </si>
+  <si>
+    <t>B112112222</t>
+  </si>
+  <si>
+    <t>B122212112</t>
+  </si>
+  <si>
+    <t>A122222211</t>
+  </si>
+  <si>
+    <t>B112221221</t>
+  </si>
+  <si>
+    <t>A112222221</t>
+  </si>
+  <si>
+    <t>A112122222</t>
+  </si>
+  <si>
+    <t>A222211122</t>
+  </si>
+  <si>
+    <t>A122211222</t>
+  </si>
+  <si>
+    <t>B121121121</t>
+  </si>
+  <si>
+    <t>B122211222</t>
   </si>
   <si>
     <t>B122122221</t>
   </si>
   <si>
-    <t>B121221222</t>
-  </si>
-  <si>
-    <t>A212122112</t>
-  </si>
-  <si>
-    <t>A221121122</t>
-  </si>
-  <si>
-    <t>B112221221</t>
-  </si>
-  <si>
-    <t>B222111122</t>
-  </si>
-  <si>
-    <t>B122211222</t>
-  </si>
-  <si>
-    <t>A122211222</t>
-  </si>
-  <si>
-    <t>A222211122</t>
-  </si>
-  <si>
-    <t>A112221222</t>
-  </si>
-  <si>
-    <t>B112121111</t>
-  </si>
-  <si>
-    <t>A211111112</t>
+    <t>B211122221</t>
   </si>
   <si>
     <t>B122121121</t>
   </si>
   <si>
-    <t>A111121222</t>
-  </si>
-  <si>
-    <t>B111211122</t>
-  </si>
-  <si>
-    <t>A212222221</t>
-  </si>
-  <si>
-    <t>B121121211</t>
-  </si>
-  <si>
-    <t>B211211221</t>
-  </si>
-  <si>
-    <t>B222212121</t>
-  </si>
-  <si>
-    <t>B112112112</t>
-  </si>
-  <si>
-    <t>B121211221</t>
-  </si>
-  <si>
-    <t>A111221112</t>
-  </si>
-  <si>
-    <t>B112112222</t>
-  </si>
-  <si>
-    <t>B122111221</t>
-  </si>
-  <si>
-    <t>A112122222</t>
-  </si>
-  <si>
-    <t>A121121212</t>
-  </si>
-  <si>
-    <t>A122111211</t>
-  </si>
-  <si>
-    <t>A121112211</t>
-  </si>
-  <si>
-    <t>A121112112</t>
+    <t>B221112111</t>
+  </si>
+  <si>
+    <t>B221122111</t>
+  </si>
+  <si>
+    <t>A222112122</t>
+  </si>
+  <si>
+    <t>B212212122</t>
   </si>
   <si>
     <t>A212111112</t>
   </si>
   <si>
-    <t>A212122222</t>
-  </si>
-  <si>
-    <t>B221122111</t>
-  </si>
-  <si>
-    <t>A112122211</t>
-  </si>
-  <si>
-    <t>A222112122</t>
-  </si>
-  <si>
-    <t>A211221111</t>
-  </si>
-  <si>
-    <t>B111221121</t>
-  </si>
-  <si>
-    <t>B122212112</t>
-  </si>
-  <si>
-    <t>A111221212</t>
-  </si>
-  <si>
-    <t>A121111121</t>
-  </si>
-  <si>
-    <t>B212212122</t>
-  </si>
-  <si>
-    <t>B221221121</t>
-  </si>
-  <si>
-    <t>B221121212</t>
-  </si>
-  <si>
-    <t>A222121112</t>
-  </si>
-  <si>
-    <t>B122222111</t>
-  </si>
-  <si>
-    <t>B211111212</t>
-  </si>
-  <si>
-    <t>A212222222</t>
-  </si>
-  <si>
-    <t>A211121112</t>
-  </si>
-  <si>
-    <t>A111211111</t>
-  </si>
-  <si>
-    <t>B212211222</t>
-  </si>
-  <si>
-    <t>B221121111</t>
-  </si>
-  <si>
-    <t>A111221111</t>
-  </si>
-  <si>
-    <t>A111221121</t>
-  </si>
-  <si>
-    <t>A222112212</t>
-  </si>
-  <si>
-    <t>A211221221</t>
-  </si>
-  <si>
-    <t>B211122221</t>
-  </si>
-  <si>
-    <t>A112121121</t>
-  </si>
-  <si>
-    <t>A211112222</t>
-  </si>
-  <si>
-    <t>B111222222</t>
-  </si>
-  <si>
-    <t>A111222121</t>
-  </si>
-  <si>
-    <t>A121212212</t>
-  </si>
-  <si>
-    <t>A121121222</t>
-  </si>
-  <si>
-    <t>B112212111</t>
-  </si>
-  <si>
-    <t>A212121111</t>
-  </si>
-  <si>
-    <t>A212221212</t>
-  </si>
-  <si>
-    <t>A112222221</t>
-  </si>
-  <si>
-    <t>B112122111</t>
-  </si>
-  <si>
-    <t>A211112221</t>
-  </si>
-  <si>
-    <t>B211111221</t>
-  </si>
-  <si>
-    <t>B222112122</t>
-  </si>
-  <si>
-    <t>B122112211</t>
-  </si>
-  <si>
-    <t>A122122122</t>
-  </si>
-  <si>
-    <t>A122222211</t>
-  </si>
-  <si>
-    <t>A212111121</t>
-  </si>
-  <si>
-    <t>B211112122</t>
-  </si>
-  <si>
-    <t>B212212222</t>
-  </si>
-  <si>
-    <t>B112112111</t>
-  </si>
-  <si>
-    <t>B121121121</t>
-  </si>
-  <si>
-    <t>B112122222</t>
-  </si>
-  <si>
-    <t>B122121222</t>
-  </si>
-  <si>
-    <t>B212222211</t>
-  </si>
-  <si>
-    <t>B222221211</t>
-  </si>
-  <si>
-    <t>B122211121</t>
-  </si>
-  <si>
-    <t>B212222212</t>
-  </si>
-  <si>
-    <t>B221111221</t>
-  </si>
-  <si>
-    <t>A222122212</t>
-  </si>
-  <si>
-    <t>A112112221</t>
-  </si>
-  <si>
-    <t>B221112111</t>
-  </si>
-  <si>
-    <t>B212221112</t>
-  </si>
-  <si>
-    <t>A211121221</t>
-  </si>
-  <si>
-    <t>B111121211</t>
-  </si>
-  <si>
-    <t>B221122221</t>
-  </si>
-  <si>
-    <t>B212122111</t>
+    <t>B222112221</t>
+  </si>
+  <si>
+    <t>B211122122</t>
+  </si>
+  <si>
+    <t>A121111221</t>
+  </si>
+  <si>
+    <t>A212112211</t>
+  </si>
+  <si>
+    <t>B122222222</t>
+  </si>
+  <si>
+    <t>A221111121</t>
+  </si>
+  <si>
+    <t>B211121212</t>
+  </si>
+  <si>
+    <t>A212221222</t>
+  </si>
+  <si>
+    <t>B212212112</t>
+  </si>
+  <si>
+    <t>A111222111</t>
+  </si>
+  <si>
+    <t>B212222121</t>
+  </si>
+  <si>
+    <t>B221222111</t>
+  </si>
+  <si>
+    <t>A212211221</t>
+  </si>
+  <si>
+    <t>A222122112</t>
+  </si>
+  <si>
+    <t>B222222212</t>
+  </si>
+  <si>
+    <t>A212221221</t>
+  </si>
+  <si>
+    <t>A212121121</t>
+  </si>
+  <si>
+    <t>A121111122</t>
+  </si>
+  <si>
+    <t>B212111221</t>
+  </si>
+  <si>
+    <t>A112111112</t>
+  </si>
+  <si>
+    <t>B212111111</t>
   </si>
   <si>
     <t>B111112211</t>
   </si>
   <si>
-    <t>B222112221</t>
+    <t>A222121221</t>
+  </si>
+  <si>
+    <t>B122221121</t>
+  </si>
+  <si>
+    <t>B211211211</t>
   </si>
   <si>
     <t>A111112122</t>
   </si>
   <si>
+    <t>B212122112</t>
+  </si>
+  <si>
+    <t>B211222211</t>
+  </si>
+  <si>
+    <t>A111122121</t>
+  </si>
+  <si>
+    <t>A111122211</t>
+  </si>
+  <si>
+    <t>B221221212</t>
+  </si>
+  <si>
+    <t>B112221211</t>
+  </si>
+  <si>
+    <t>A111122122</t>
+  </si>
+  <si>
+    <t>B111212211</t>
+  </si>
+  <si>
+    <t>B112211121</t>
+  </si>
+  <si>
+    <t>A121211112</t>
+  </si>
+  <si>
+    <t>B122111121</t>
+  </si>
+  <si>
+    <t>A111121112</t>
+  </si>
+  <si>
+    <t>B111211112</t>
+  </si>
+  <si>
+    <t>A112112112</t>
+  </si>
+  <si>
+    <t>A211122222</t>
+  </si>
+  <si>
+    <t>A221211111</t>
+  </si>
+  <si>
+    <t>A111211221</t>
+  </si>
+  <si>
+    <t>A222222122</t>
+  </si>
+  <si>
+    <t>A121211221</t>
+  </si>
+  <si>
+    <t>A111222212</t>
+  </si>
+  <si>
+    <t>B221222112</t>
+  </si>
+  <si>
+    <t>A112212222</t>
+  </si>
+  <si>
+    <t>A112122112</t>
+  </si>
+  <si>
+    <t>B111122222</t>
+  </si>
+  <si>
+    <t>A221111222</t>
+  </si>
+  <si>
+    <t>A111111212</t>
+  </si>
+  <si>
+    <t>A111112212</t>
+  </si>
+  <si>
+    <t>B112122121</t>
+  </si>
+  <si>
+    <t>A222212211</t>
+  </si>
+  <si>
+    <t>A222111112</t>
+  </si>
+  <si>
+    <t>A212111122</t>
+  </si>
+  <si>
+    <t>A221222111</t>
+  </si>
+  <si>
+    <t>A221121221</t>
+  </si>
+  <si>
+    <t>B222222111</t>
+  </si>
+  <si>
+    <t>B222112121</t>
+  </si>
+  <si>
+    <t>A212221122</t>
+  </si>
+  <si>
+    <t>A111221221</t>
+  </si>
+  <si>
+    <t>A121211212</t>
+  </si>
+  <si>
+    <t>B111221211</t>
+  </si>
+  <si>
+    <t>A212112112</t>
+  </si>
+  <si>
+    <t>A111222221</t>
+  </si>
+  <si>
+    <t>B222221112</t>
+  </si>
+  <si>
+    <t>B212211112</t>
+  </si>
+  <si>
+    <t>A111111211</t>
+  </si>
+  <si>
     <t>A212211112</t>
   </si>
   <si>
+    <t>A122122121</t>
+  </si>
+  <si>
+    <t>A111222222</t>
+  </si>
+  <si>
+    <t>B221222122</t>
+  </si>
+  <si>
+    <t>B112222211</t>
+  </si>
+  <si>
+    <t>B221112121</t>
+  </si>
+  <si>
+    <t>A122112112</t>
+  </si>
+  <si>
+    <t>B221112221</t>
+  </si>
+  <si>
+    <t>B212112211</t>
+  </si>
+  <si>
+    <t>A121121112</t>
+  </si>
+  <si>
+    <t>A121121121</t>
+  </si>
+  <si>
+    <t>B212112221</t>
+  </si>
+  <si>
+    <t>B121112221</t>
+  </si>
+  <si>
+    <t>B122111212</t>
+  </si>
+  <si>
+    <t>B211222221</t>
+  </si>
+  <si>
+    <t>B222122112</t>
+  </si>
+  <si>
+    <t>A212222111</t>
+  </si>
+  <si>
+    <t>A112112222</t>
+  </si>
+  <si>
+    <t>B221212111</t>
+  </si>
+  <si>
+    <t>B212221212</t>
+  </si>
+  <si>
+    <t>A212112122</t>
+  </si>
+  <si>
+    <t>A122212221</t>
+  </si>
+  <si>
+    <t>B211121122</t>
+  </si>
+  <si>
+    <t>A221212121</t>
+  </si>
+  <si>
+    <t>A212121212</t>
+  </si>
+  <si>
+    <t>A221221212</t>
+  </si>
+  <si>
+    <t>A221221221</t>
+  </si>
+  <si>
+    <t>A211112112</t>
+  </si>
+  <si>
     <t>A111222122</t>
   </si>
   <si>
-    <t>B212211112</t>
-  </si>
-  <si>
-    <t>A121121112</t>
-  </si>
-  <si>
-    <t>A122122121</t>
-  </si>
-  <si>
-    <t>A111122121</t>
-  </si>
-  <si>
-    <t>A121111221</t>
-  </si>
-  <si>
-    <t>B221222111</t>
-  </si>
-  <si>
-    <t>B112222211</t>
-  </si>
-  <si>
-    <t>B221112221</t>
-  </si>
-  <si>
-    <t>A211122222</t>
-  </si>
-  <si>
-    <t>B221212111</t>
-  </si>
-  <si>
-    <t>A212222111</t>
-  </si>
-  <si>
-    <t>B211122122</t>
-  </si>
-  <si>
-    <t>B221221212</t>
+    <t>B122112221</t>
+  </si>
+  <si>
+    <t>B121211211</t>
+  </si>
+  <si>
+    <t>A222122221</t>
+  </si>
+  <si>
+    <t>A121211121</t>
+  </si>
+  <si>
+    <t>B112212221</t>
+  </si>
+  <si>
+    <t>B222122221</t>
   </si>
   <si>
     <t>A222212121</t>
   </si>
   <si>
-    <t>A111221221</t>
-  </si>
-  <si>
-    <t>A111211221</t>
-  </si>
-  <si>
-    <t>A122112112</t>
-  </si>
-  <si>
-    <t>A112112222</t>
-  </si>
-  <si>
-    <t>A121111122</t>
-  </si>
-  <si>
-    <t>A121211221</t>
-  </si>
-  <si>
-    <t>B212212112</t>
-  </si>
-  <si>
-    <t>A112112112</t>
-  </si>
-  <si>
-    <t>A112122112</t>
-  </si>
-  <si>
-    <t>B111221211</t>
-  </si>
-  <si>
-    <t>B111122222</t>
-  </si>
-  <si>
-    <t>B122222222</t>
-  </si>
-  <si>
-    <t>A222222122</t>
-  </si>
-  <si>
-    <t>A222122112</t>
-  </si>
-  <si>
-    <t>B222122112</t>
-  </si>
-  <si>
-    <t>B221222122</t>
-  </si>
-  <si>
-    <t>B212111221</t>
-  </si>
-  <si>
-    <t>A221221212</t>
-  </si>
-  <si>
-    <t>A221121221</t>
-  </si>
-  <si>
-    <t>A212221122</t>
-  </si>
-  <si>
     <t>B112221111</t>
   </si>
   <si>
-    <t>A221211111</t>
-  </si>
-  <si>
-    <t>A121211112</t>
-  </si>
-  <si>
-    <t>A121212122</t>
-  </si>
-  <si>
-    <t>B111212211</t>
-  </si>
-  <si>
-    <t>A212112112</t>
-  </si>
-  <si>
-    <t>B112122121</t>
-  </si>
-  <si>
-    <t>B211222211</t>
-  </si>
-  <si>
-    <t>B221112121</t>
-  </si>
-  <si>
-    <t>A111122122</t>
-  </si>
-  <si>
-    <t>A222121221</t>
-  </si>
-  <si>
-    <t>A212112122</t>
-  </si>
-  <si>
-    <t>A221221221</t>
-  </si>
-  <si>
-    <t>B122111212</t>
-  </si>
-  <si>
-    <t>B121211211</t>
-  </si>
-  <si>
-    <t>A111121112</t>
-  </si>
-  <si>
-    <t>A222111112</t>
-  </si>
-  <si>
-    <t>B212112221</t>
-  </si>
-  <si>
-    <t>A221111121</t>
-  </si>
-  <si>
-    <t>B111211112</t>
-  </si>
-  <si>
-    <t>B211121212</t>
-  </si>
-  <si>
-    <t>B211211211</t>
-  </si>
-  <si>
-    <t>A111222221</t>
-  </si>
-  <si>
-    <t>A111122211</t>
-  </si>
-  <si>
-    <t>A111222212</t>
-  </si>
-  <si>
-    <t>B222112121</t>
-  </si>
-  <si>
-    <t>B211121122</t>
-  </si>
-  <si>
-    <t>B212112211</t>
-  </si>
-  <si>
-    <t>B222222112</t>
-  </si>
-  <si>
-    <t>A212112211</t>
-  </si>
-  <si>
-    <t>A212221221</t>
-  </si>
-  <si>
-    <t>A122212221</t>
-  </si>
-  <si>
-    <t>A221111222</t>
-  </si>
-  <si>
-    <t>A112212222</t>
-  </si>
-  <si>
-    <t>B121112221</t>
-  </si>
-  <si>
-    <t>B122112221</t>
-  </si>
-  <si>
-    <t>B211222221</t>
-  </si>
-  <si>
-    <t>B212221212</t>
-  </si>
-  <si>
-    <t>A111222111</t>
-  </si>
-  <si>
-    <t>B112211121</t>
-  </si>
-  <si>
-    <t>A111222222</t>
-  </si>
-  <si>
-    <t>B112212221</t>
-  </si>
-  <si>
-    <t>A112111112</t>
-  </si>
-  <si>
-    <t>A111111212</t>
-  </si>
-  <si>
-    <t>A121211121</t>
-  </si>
-  <si>
-    <t>B112221211</t>
-  </si>
-  <si>
-    <t>B122111121</t>
-  </si>
-  <si>
-    <t>A222122221</t>
-  </si>
-  <si>
-    <t>A221212121</t>
-  </si>
-  <si>
-    <t>A121211212</t>
-  </si>
-  <si>
-    <t>B222222212</t>
-  </si>
-  <si>
-    <t>B122221121</t>
-  </si>
-  <si>
-    <t>B212222121</t>
-  </si>
-  <si>
-    <t>B222122221</t>
-  </si>
-  <si>
-    <t>B122221122</t>
-  </si>
-  <si>
-    <t>B212122112</t>
-  </si>
-  <si>
-    <t>A211112112</t>
-  </si>
-  <si>
-    <t>A212121212</t>
-  </si>
-  <si>
-    <t>A221222111</t>
-  </si>
-  <si>
-    <t>A212221222</t>
-  </si>
-  <si>
-    <t>A111112212</t>
-  </si>
-  <si>
-    <t>B221222112</t>
-  </si>
-  <si>
-    <t>A212211221</t>
-  </si>
-  <si>
-    <t>B222221112</t>
-  </si>
-  <si>
-    <t>A222212211</t>
-  </si>
-  <si>
-    <t>B222222111</t>
-  </si>
-  <si>
-    <t>A111111211</t>
-  </si>
-  <si>
-    <t>B212111111</t>
-  </si>
-  <si>
-    <t>A121121121</t>
+    <t>A221112122</t>
+  </si>
+  <si>
+    <t>B212122221</t>
+  </si>
+  <si>
+    <t>B121122121</t>
+  </si>
+  <si>
+    <t>A122112121</t>
+  </si>
+  <si>
+    <t>B211211121</t>
+  </si>
+  <si>
+    <t>B111221212</t>
+  </si>
+  <si>
+    <t>B111121221</t>
+  </si>
+  <si>
+    <t>A222211222</t>
+  </si>
+  <si>
+    <t>A211121222</t>
+  </si>
+  <si>
+    <t>A211112121</t>
+  </si>
+  <si>
+    <t>A121121221</t>
+  </si>
+  <si>
+    <t>A121112212</t>
+  </si>
+  <si>
+    <t>A122121111</t>
+  </si>
+  <si>
+    <t>B121121221</t>
+  </si>
+  <si>
+    <t>A121221111</t>
+  </si>
+  <si>
+    <t>B121111121</t>
+  </si>
+  <si>
+    <t>B212111212</t>
+  </si>
+  <si>
+    <t>B212212121</t>
+  </si>
+  <si>
+    <t>A121221122</t>
+  </si>
+  <si>
+    <t>A112121122</t>
+  </si>
+  <si>
+    <t>B112211212</t>
+  </si>
+  <si>
+    <t>A221112112</t>
+  </si>
+  <si>
+    <t>B211121111</t>
+  </si>
+  <si>
+    <t>B211111122</t>
+  </si>
+  <si>
+    <t>A221111112</t>
+  </si>
+  <si>
+    <t>A221122122</t>
+  </si>
+  <si>
+    <t>B211112111</t>
+  </si>
+  <si>
+    <t>A211211211</t>
+  </si>
+  <si>
+    <t>B211111112</t>
+  </si>
+  <si>
+    <t>B121121112</t>
+  </si>
+  <si>
+    <t>A222111221</t>
+  </si>
+  <si>
+    <t>B111112212</t>
+  </si>
+  <si>
+    <t>B122121212</t>
+  </si>
+  <si>
+    <t>A111112222</t>
+  </si>
+  <si>
+    <t>B121211122</t>
+  </si>
+  <si>
+    <t>A221122212</t>
+  </si>
+  <si>
+    <t>B211212122</t>
+  </si>
+  <si>
+    <t>B212221111</t>
+  </si>
+  <si>
+    <t>A112111212</t>
+  </si>
+  <si>
+    <t>A112111111</t>
+  </si>
+  <si>
+    <t>A121121111</t>
+  </si>
+  <si>
+    <t>B212121112</t>
+  </si>
+  <si>
+    <t>B111111112</t>
+  </si>
+  <si>
+    <t>B111112112</t>
+  </si>
+  <si>
+    <t>A111211222</t>
+  </si>
+  <si>
+    <t>B221211111</t>
+  </si>
+  <si>
+    <t>A121111212</t>
+  </si>
+  <si>
+    <t>B211222212</t>
+  </si>
+  <si>
+    <t>A212212211</t>
+  </si>
+  <si>
+    <t>A112211222</t>
+  </si>
+  <si>
+    <t>B212212212</t>
+  </si>
+  <si>
+    <t>A212222211</t>
+  </si>
+  <si>
+    <t>B111222122</t>
+  </si>
+  <si>
+    <t>A221122222</t>
+  </si>
+  <si>
+    <t>A222121111</t>
+  </si>
+  <si>
+    <t>A221112111</t>
+  </si>
+  <si>
+    <t>A122222212</t>
+  </si>
+  <si>
+    <t>A122112212</t>
+  </si>
+  <si>
+    <t>B221121112</t>
+  </si>
+  <si>
+    <t>A122211211</t>
+  </si>
+  <si>
+    <t>B221122121</t>
+  </si>
+  <si>
+    <t>B111212212</t>
+  </si>
+  <si>
+    <t>A112121212</t>
+  </si>
+  <si>
+    <t>A222112111</t>
+  </si>
+  <si>
+    <t>B212121111</t>
+  </si>
+  <si>
+    <t>A122211221</t>
+  </si>
+  <si>
+    <t>B222211212</t>
   </si>
   <si>
     <t>A222221121</t>
   </si>
   <si>
-    <t>A112211222</t>
+    <t>B211121221</t>
+  </si>
+  <si>
+    <t>A221222212</t>
+  </si>
+  <si>
+    <t>B112212211</t>
+  </si>
+  <si>
+    <t>A221211112</t>
+  </si>
+  <si>
+    <t>B222221212</t>
+  </si>
+  <si>
+    <t>B111221111</t>
+  </si>
+  <si>
+    <t>B121112111</t>
+  </si>
+  <si>
+    <t>A121122222</t>
+  </si>
+  <si>
+    <t>A211221211</t>
+  </si>
+  <si>
+    <t>A112111211</t>
+  </si>
+  <si>
+    <t>B221211211</t>
+  </si>
+  <si>
+    <t>B211212121</t>
+  </si>
+  <si>
+    <t>A211211222</t>
+  </si>
+  <si>
+    <t>B211122222</t>
+  </si>
+  <si>
+    <t>B111211211</t>
+  </si>
+  <si>
+    <t>A122211112</t>
+  </si>
+  <si>
+    <t>A121121211</t>
+  </si>
+  <si>
+    <t>B122222212</t>
+  </si>
+  <si>
+    <t>B121112112</t>
+  </si>
+  <si>
+    <t>B121112212</t>
+  </si>
+  <si>
+    <t>B122211221</t>
+  </si>
+  <si>
+    <t>A212111221</t>
+  </si>
+  <si>
+    <t>A222122122</t>
   </si>
   <si>
     <t>B222222211</t>
   </si>
   <si>
-    <t>B121112112</t>
+    <t>B222122122</t>
+  </si>
+  <si>
+    <t>B221122122</t>
+  </si>
+  <si>
+    <t>A211212122</t>
+  </si>
+  <si>
+    <t>A112211221</t>
+  </si>
+  <si>
+    <t>A122111221</t>
+  </si>
+  <si>
+    <t>A121211211</t>
+  </si>
+  <si>
+    <t>A121122212</t>
+  </si>
+  <si>
+    <t>B221112112</t>
+  </si>
+  <si>
+    <t>A111122221</t>
+  </si>
+  <si>
+    <t>B221111122</t>
+  </si>
+  <si>
+    <t>A212212222</t>
+  </si>
+  <si>
+    <t>B212112121</t>
+  </si>
+  <si>
+    <t>A212211111</t>
+  </si>
+  <si>
+    <t>A112212121</t>
+  </si>
+  <si>
+    <t>B221121211</t>
+  </si>
+  <si>
+    <t>A112221112</t>
+  </si>
+  <si>
+    <t>B212111121</t>
+  </si>
+  <si>
+    <t>A221211212</t>
+  </si>
+  <si>
+    <t>B211211212</t>
   </si>
   <si>
     <t>B111121122</t>
   </si>
   <si>
-    <t>B212112121</t>
+    <t>B222111121</t>
+  </si>
+  <si>
+    <t>A121212211</t>
+  </si>
+  <si>
+    <t>B122211212</t>
+  </si>
+  <si>
+    <t>A222222211</t>
+  </si>
+  <si>
+    <t>B221121121</t>
+  </si>
+  <si>
+    <t>B211222112</t>
+  </si>
+  <si>
+    <t>A112222222</t>
+  </si>
+  <si>
+    <t>B221212211</t>
+  </si>
+  <si>
+    <t>A222122211</t>
+  </si>
+  <si>
+    <t>A111111112</t>
+  </si>
+  <si>
+    <t>A212221211</t>
+  </si>
+  <si>
+    <t>A222222111</t>
+  </si>
+  <si>
+    <t>B122211112</t>
+  </si>
+  <si>
+    <t>B111111121</t>
+  </si>
+  <si>
+    <t>A111122222</t>
+  </si>
+  <si>
+    <t>A222211112</t>
+  </si>
+  <si>
+    <t>A221112121</t>
+  </si>
+  <si>
+    <t>A211211111</t>
+  </si>
+  <si>
+    <t>A112122111</t>
   </si>
   <si>
     <t>A221112212</t>
   </si>
   <si>
-    <t>B121121221</t>
-  </si>
-  <si>
-    <t>B111121221</t>
-  </si>
-  <si>
-    <t>B211121111</t>
-  </si>
-  <si>
-    <t>B212221111</t>
-  </si>
-  <si>
-    <t>A212212222</t>
-  </si>
-  <si>
-    <t>A122112121</t>
+    <t>B212221221</t>
+  </si>
+  <si>
+    <t>B121222121</t>
+  </si>
+  <si>
+    <t>B212112122</t>
+  </si>
+  <si>
+    <t>B121121222</t>
+  </si>
+  <si>
+    <t>B212222122</t>
+  </si>
+  <si>
+    <t>B221111212</t>
+  </si>
+  <si>
+    <t>A122121211</t>
+  </si>
+  <si>
+    <t>A221212122</t>
+  </si>
+  <si>
+    <t>A222212212</t>
+  </si>
+  <si>
+    <t>A221221121</t>
+  </si>
+  <si>
+    <t>A222222121</t>
+  </si>
+  <si>
+    <t>B222212221</t>
+  </si>
+  <si>
+    <t>B222111212</t>
   </si>
   <si>
     <t>A111212122</t>
   </si>
   <si>
-    <t>B212212212</t>
-  </si>
-  <si>
-    <t>A111111112</t>
-  </si>
-  <si>
-    <t>A221111112</t>
-  </si>
-  <si>
-    <t>B121222121</t>
-  </si>
-  <si>
-    <t>B221211111</t>
-  </si>
-  <si>
-    <t>B221212211</t>
-  </si>
-  <si>
-    <t>A112111211</t>
-  </si>
-  <si>
-    <t>B221211211</t>
-  </si>
-  <si>
-    <t>B222211212</t>
-  </si>
-  <si>
-    <t>B111221111</t>
-  </si>
-  <si>
-    <t>A122211211</t>
-  </si>
-  <si>
-    <t>A112211221</t>
-  </si>
-  <si>
-    <t>A212111221</t>
-  </si>
-  <si>
-    <t>B211222112</t>
-  </si>
-  <si>
-    <t>A112111111</t>
-  </si>
-  <si>
-    <t>B211222212</t>
-  </si>
-  <si>
-    <t>A112111212</t>
-  </si>
-  <si>
-    <t>B222221212</t>
-  </si>
-  <si>
-    <t>B221121121</t>
-  </si>
-  <si>
-    <t>B211212121</t>
-  </si>
-  <si>
-    <t>A122211221</t>
-  </si>
-  <si>
-    <t>A111211222</t>
-  </si>
-  <si>
-    <t>A212121121</t>
-  </si>
-  <si>
-    <t>B211111112</t>
-  </si>
-  <si>
-    <t>A221122212</t>
-  </si>
-  <si>
-    <t>B121112111</t>
-  </si>
-  <si>
-    <t>B112212211</t>
-  </si>
-  <si>
-    <t>A212222211</t>
-  </si>
-  <si>
-    <t>B111222122</t>
-  </si>
-  <si>
-    <t>B212121111</t>
-  </si>
-  <si>
-    <t>A211212122</t>
-  </si>
-  <si>
-    <t>B111212212</t>
-  </si>
-  <si>
-    <t>B112211212</t>
-  </si>
-  <si>
-    <t>B211212122</t>
-  </si>
-  <si>
-    <t>B222111121</t>
-  </si>
-  <si>
-    <t>B212121112</t>
-  </si>
-  <si>
-    <t>B122121212</t>
-  </si>
-  <si>
-    <t>A221112121</t>
-  </si>
-  <si>
-    <t>A112212121</t>
-  </si>
-  <si>
-    <t>B221111122</t>
-  </si>
-  <si>
-    <t>A222212212</t>
-  </si>
-  <si>
-    <t>A221122122</t>
-  </si>
-  <si>
-    <t>A111122222</t>
-  </si>
-  <si>
-    <t>B121122121</t>
-  </si>
-  <si>
-    <t>A121122222</t>
-  </si>
-  <si>
-    <t>A121121111</t>
-  </si>
-  <si>
-    <t>A221222212</t>
-  </si>
-  <si>
-    <t>B211112111</t>
-  </si>
-  <si>
-    <t>A221112111</t>
-  </si>
-  <si>
-    <t>B212112122</t>
-  </si>
-  <si>
-    <t>B212111212</t>
-  </si>
-  <si>
-    <t>A222211112</t>
-  </si>
-  <si>
-    <t>B121121222</t>
-  </si>
-  <si>
-    <t>A222121111</t>
-  </si>
-  <si>
-    <t>A121121221</t>
-  </si>
-  <si>
-    <t>B211122222</t>
-  </si>
-  <si>
-    <t>B222122122</t>
-  </si>
-  <si>
-    <t>B122222212</t>
-  </si>
-  <si>
-    <t>B121121112</t>
-  </si>
-  <si>
-    <t>A121212211</t>
-  </si>
-  <si>
-    <t>B121111121</t>
-  </si>
-  <si>
-    <t>A221221121</t>
-  </si>
-  <si>
-    <t>B121112212</t>
-  </si>
-  <si>
-    <t>A122121211</t>
-  </si>
-  <si>
-    <t>B221121211</t>
-  </si>
-  <si>
-    <t>A122211112</t>
-  </si>
-  <si>
-    <t>A122111221</t>
-  </si>
-  <si>
-    <t>A221212122</t>
-  </si>
-  <si>
-    <t>A112121212</t>
-  </si>
-  <si>
-    <t>B111112212</t>
-  </si>
-  <si>
-    <t>A111122221</t>
-  </si>
-  <si>
-    <t>A212111122</t>
-  </si>
-  <si>
-    <t>A112222222</t>
-  </si>
-  <si>
-    <t>B111211211</t>
-  </si>
-  <si>
-    <t>A211211111</t>
-  </si>
-  <si>
-    <t>A112221112</t>
-  </si>
-  <si>
-    <t>A222112111</t>
-  </si>
-  <si>
-    <t>B221121112</t>
-  </si>
-  <si>
-    <t>B211211121</t>
-  </si>
-  <si>
-    <t>B221111212</t>
-  </si>
-  <si>
-    <t>A122112212</t>
-  </si>
-  <si>
-    <t>B221112112</t>
-  </si>
-  <si>
-    <t>B122211212</t>
-  </si>
-  <si>
-    <t>B222212221</t>
-  </si>
-  <si>
-    <t>B221122121</t>
-  </si>
-  <si>
-    <t>A211211211</t>
-  </si>
-  <si>
-    <t>A121221122</t>
-  </si>
-  <si>
-    <t>A111112222</t>
-  </si>
-  <si>
-    <t>B111111112</t>
-  </si>
-  <si>
-    <t>A122222212</t>
-  </si>
-  <si>
-    <t>B122211112</t>
-  </si>
-  <si>
-    <t>B111111121</t>
-  </si>
-  <si>
-    <t>A222111221</t>
-  </si>
-  <si>
-    <t>A222211222</t>
-  </si>
-  <si>
-    <t>A222222211</t>
-  </si>
-  <si>
-    <t>B222111212</t>
-  </si>
-  <si>
-    <t>A221112112</t>
-  </si>
-  <si>
-    <t>A222122211</t>
-  </si>
-  <si>
-    <t>A122121111</t>
-  </si>
-  <si>
-    <t>A112121122</t>
-  </si>
-  <si>
-    <t>B221122122</t>
-  </si>
-  <si>
-    <t>A121211211</t>
-  </si>
-  <si>
-    <t>A222222111</t>
-  </si>
-  <si>
-    <t>B212221221</t>
-  </si>
-  <si>
-    <t>A212211111</t>
-  </si>
-  <si>
-    <t>B212122221</t>
-  </si>
-  <si>
-    <t>B212212121</t>
-  </si>
-  <si>
-    <t>A212212211</t>
-  </si>
-  <si>
-    <t>B122211221</t>
-  </si>
-  <si>
-    <t>A121111212</t>
-  </si>
-  <si>
-    <t>A211121222</t>
-  </si>
-  <si>
-    <t>A121122212</t>
-  </si>
-  <si>
-    <t>A221112122</t>
-  </si>
-  <si>
-    <t>A221211212</t>
-  </si>
-  <si>
-    <t>A121112212</t>
-  </si>
-  <si>
-    <t>A121121211</t>
-  </si>
-  <si>
-    <t>A112122111</t>
-  </si>
-  <si>
-    <t>B212222122</t>
-  </si>
-  <si>
-    <t>B211111122</t>
-  </si>
-  <si>
-    <t>B121211122</t>
-  </si>
-  <si>
-    <t>A211112121</t>
-  </si>
-  <si>
-    <t>A211221211</t>
-  </si>
-  <si>
-    <t>B212111121</t>
-  </si>
-  <si>
-    <t>A221211112</t>
-  </si>
-  <si>
-    <t>B111112112</t>
-  </si>
-  <si>
-    <t>A222222121</t>
-  </si>
-  <si>
-    <t>A121221111</t>
-  </si>
-  <si>
-    <t>A222122122</t>
-  </si>
-  <si>
-    <t>B211211212</t>
-  </si>
-  <si>
-    <t>B211121221</t>
-  </si>
-  <si>
-    <t>A212221211</t>
-  </si>
-  <si>
-    <t>A211211222</t>
-  </si>
-  <si>
-    <t>B111221212</t>
+    <t>A121121122</t>
+  </si>
+  <si>
+    <t>A222111222</t>
+  </si>
+  <si>
+    <t>B211211112</t>
+  </si>
+  <si>
+    <t>A111111121</t>
+  </si>
+  <si>
+    <t>A122221211</t>
+  </si>
+  <si>
+    <t>B221112122</t>
   </si>
   <si>
     <t>B212222222</t>
   </si>
   <si>
+    <t>B111212112</t>
+  </si>
+  <si>
+    <t>B211221212</t>
+  </si>
+  <si>
+    <t>B121111212</t>
+  </si>
+  <si>
+    <t>B121222211</t>
+  </si>
+  <si>
+    <t>B222221122</t>
+  </si>
+  <si>
+    <t>B222211121</t>
+  </si>
+  <si>
+    <t>A221221112</t>
+  </si>
+  <si>
+    <t>A122122212</t>
+  </si>
+  <si>
+    <t>A222221221</t>
+  </si>
+  <si>
+    <t>B212112212</t>
+  </si>
+  <si>
+    <t>B122222112</t>
+  </si>
+  <si>
+    <t>B212121222</t>
+  </si>
+  <si>
+    <t>B112212122</t>
+  </si>
+  <si>
+    <t>B211221222</t>
+  </si>
+  <si>
+    <t>B121121122</t>
+  </si>
+  <si>
+    <t>A222112121</t>
+  </si>
+  <si>
+    <t>A112222211</t>
+  </si>
+  <si>
+    <t>A121211122</t>
+  </si>
+  <si>
+    <t>A222112112</t>
+  </si>
+  <si>
+    <t>B121221211</t>
+  </si>
+  <si>
+    <t>A121112221</t>
+  </si>
+  <si>
+    <t>A111212111</t>
+  </si>
+  <si>
+    <t>B112112211</t>
+  </si>
+  <si>
+    <t>A111121122</t>
+  </si>
+  <si>
+    <t>B221212222</t>
+  </si>
+  <si>
+    <t>B112222221</t>
+  </si>
+  <si>
+    <t>A211221222</t>
+  </si>
+  <si>
+    <t>B111111122</t>
+  </si>
+  <si>
+    <t>B111222111</t>
+  </si>
+  <si>
+    <t>B112212222</t>
+  </si>
+  <si>
+    <t>B121222222</t>
+  </si>
+  <si>
+    <t>A121222121</t>
+  </si>
+  <si>
+    <t>A121122121</t>
+  </si>
+  <si>
+    <t>B121222112</t>
+  </si>
+  <si>
+    <t>B221121221</t>
+  </si>
+  <si>
+    <t>A211222112</t>
+  </si>
+  <si>
+    <t>B212122211</t>
+  </si>
+  <si>
+    <t>A222211111</t>
+  </si>
+  <si>
+    <t>B222212222</t>
+  </si>
+  <si>
+    <t>B221222121</t>
+  </si>
+  <si>
+    <t>B121211212</t>
+  </si>
+  <si>
+    <t>A211212112</t>
+  </si>
+  <si>
+    <t>B111121222</t>
+  </si>
+  <si>
+    <t>A122111121</t>
+  </si>
+  <si>
+    <t>B112111211</t>
+  </si>
+  <si>
+    <t>B121121111</t>
+  </si>
+  <si>
+    <t>A221211211</t>
+  </si>
+  <si>
+    <t>B122121221</t>
+  </si>
+  <si>
+    <t>A222211121</t>
+  </si>
+  <si>
+    <t>A211121111</t>
+  </si>
+  <si>
+    <t>A121212121</t>
+  </si>
+  <si>
+    <t>B211222121</t>
+  </si>
+  <si>
+    <t>A211212222</t>
+  </si>
+  <si>
+    <t>A211212111</t>
+  </si>
+  <si>
+    <t>B121122112</t>
+  </si>
+  <si>
+    <t>A211221112</t>
+  </si>
+  <si>
+    <t>B122212211</t>
+  </si>
+  <si>
+    <t>B121111112</t>
+  </si>
+  <si>
+    <t>A222111111</t>
+  </si>
+  <si>
+    <t>A112111122</t>
+  </si>
+  <si>
+    <t>A221122221</t>
+  </si>
+  <si>
+    <t>B122112212</t>
+  </si>
+  <si>
+    <t>A212212111</t>
+  </si>
+  <si>
+    <t>B122122211</t>
+  </si>
+  <si>
+    <t>A121112122</t>
+  </si>
+  <si>
+    <t>A122211111</t>
+  </si>
+  <si>
+    <t>B211112222</t>
+  </si>
+  <si>
+    <t>A111111221</t>
+  </si>
+  <si>
+    <t>B112121221</t>
+  </si>
+  <si>
+    <t>B221212221</t>
+  </si>
+  <si>
+    <t>A121222211</t>
+  </si>
+  <si>
+    <t>A212111222</t>
+  </si>
+  <si>
+    <t>B222122212</t>
+  </si>
+  <si>
+    <t>B222121222</t>
+  </si>
+  <si>
+    <t>B222222121</t>
+  </si>
+  <si>
+    <t>A122222111</t>
+  </si>
+  <si>
+    <t>B121211112</t>
+  </si>
+  <si>
+    <t>B211221122</t>
+  </si>
+  <si>
+    <t>A222222212</t>
+  </si>
+  <si>
+    <t>B212211121</t>
+  </si>
+  <si>
+    <t>B112111221</t>
+  </si>
+  <si>
+    <t>A111212211</t>
+  </si>
+  <si>
+    <t>B211121211</t>
+  </si>
+  <si>
+    <t>A222221212</t>
+  </si>
+  <si>
+    <t>B211212221</t>
+  </si>
+  <si>
+    <t>A221222122</t>
+  </si>
+  <si>
+    <t>B111211212</t>
+  </si>
+  <si>
+    <t>A212122111</t>
+  </si>
+  <si>
+    <t>A122111212</t>
+  </si>
+  <si>
+    <t>A122111222</t>
+  </si>
+  <si>
+    <t>A111112112</t>
+  </si>
+  <si>
+    <t>A122111122</t>
+  </si>
+  <si>
+    <t>A121211111</t>
+  </si>
+  <si>
+    <t>B221221122</t>
+  </si>
+  <si>
+    <t>A212212122</t>
+  </si>
+  <si>
+    <t>A211222121</t>
+  </si>
+  <si>
+    <t>A122222121</t>
+  </si>
+  <si>
+    <t>B112211211</t>
+  </si>
+  <si>
+    <t>B121222122</t>
+  </si>
+  <si>
+    <t>A122112222</t>
+  </si>
+  <si>
+    <t>A221212112</t>
+  </si>
+  <si>
+    <t>B212211111</t>
+  </si>
+  <si>
+    <t>A211122122</t>
+  </si>
+  <si>
+    <t>B211221111</t>
+  </si>
+  <si>
+    <t>B111112121</t>
+  </si>
+  <si>
+    <t>B111111221</t>
+  </si>
+  <si>
+    <t>A112221111</t>
+  </si>
+  <si>
+    <t>A122112211</t>
+  </si>
+  <si>
+    <t>B122111222</t>
+  </si>
+  <si>
+    <t>A212211121</t>
+  </si>
+  <si>
+    <t>B121122211</t>
+  </si>
+  <si>
+    <t>A122211121</t>
+  </si>
+  <si>
+    <t>A212112221</t>
+  </si>
+  <si>
+    <t>B222211211</t>
+  </si>
+  <si>
     <t>A211111212</t>
   </si>
   <si>
-    <t>B121122211</t>
-  </si>
-  <si>
-    <t>B211221222</t>
+    <t>B112222212</t>
+  </si>
+  <si>
+    <t>B222121211</t>
+  </si>
+  <si>
+    <t>B121111211</t>
+  </si>
+  <si>
+    <t>B121222111</t>
   </si>
   <si>
     <t>A121111222</t>
   </si>
   <si>
-    <t>A211222112</t>
-  </si>
-  <si>
-    <t>B222121222</t>
-  </si>
-  <si>
-    <t>B122121221</t>
-  </si>
-  <si>
-    <t>A121222121</t>
-  </si>
-  <si>
-    <t>A112221111</t>
-  </si>
-  <si>
-    <t>B222222121</t>
-  </si>
-  <si>
-    <t>B121121122</t>
-  </si>
-  <si>
-    <t>A111111221</t>
-  </si>
-  <si>
-    <t>B212112212</t>
-  </si>
-  <si>
-    <t>A221221112</t>
-  </si>
-  <si>
-    <t>B211121211</t>
-  </si>
-  <si>
-    <t>A111121122</t>
+    <t>A111111122</t>
+  </si>
+  <si>
+    <t>A221122121</t>
+  </si>
+  <si>
+    <t>B211112212</t>
+  </si>
+  <si>
+    <t>B221211121</t>
+  </si>
+  <si>
+    <t>A211112212</t>
+  </si>
+  <si>
+    <t>B212121121</t>
+  </si>
+  <si>
+    <t>A212211122</t>
+  </si>
+  <si>
+    <t>A122122211</t>
+  </si>
+  <si>
+    <t>A112221122</t>
+  </si>
+  <si>
+    <t>B121221122</t>
+  </si>
+  <si>
+    <t>A111212121</t>
+  </si>
+  <si>
+    <t>A111112121</t>
+  </si>
+  <si>
+    <t>B212222221</t>
+  </si>
+  <si>
+    <t>A221212222</t>
   </si>
   <si>
     <t>B212211211</t>
   </si>
   <si>
-    <t>A222222212</t>
-  </si>
-  <si>
-    <t>A111212211</t>
-  </si>
-  <si>
-    <t>A211212111</t>
-  </si>
-  <si>
-    <t>B112212222</t>
+    <t>B121112122</t>
+  </si>
+  <si>
+    <t>A112212221</t>
+  </si>
+  <si>
+    <t>A112111221</t>
+  </si>
+  <si>
+    <t>A111111222</t>
+  </si>
+  <si>
+    <t>A111212112</t>
+  </si>
+  <si>
+    <t>A121212111</t>
+  </si>
+  <si>
+    <t>B121111221</t>
   </si>
   <si>
     <t>B112212112</t>
   </si>
   <si>
-    <t>A222211111</t>
-  </si>
-  <si>
-    <t>A212112221</t>
-  </si>
-  <si>
-    <t>A111212112</t>
-  </si>
-  <si>
-    <t>B211112222</t>
-  </si>
-  <si>
-    <t>B221221122</t>
-  </si>
-  <si>
-    <t>A212111222</t>
-  </si>
-  <si>
-    <t>A212212111</t>
-  </si>
-  <si>
-    <t>B111222111</t>
-  </si>
-  <si>
-    <t>B222212222</t>
-  </si>
-  <si>
-    <t>A212211121</t>
-  </si>
-  <si>
-    <t>A211212222</t>
-  </si>
-  <si>
-    <t>A122112211</t>
-  </si>
-  <si>
-    <t>B211221111</t>
-  </si>
-  <si>
-    <t>B112112211</t>
-  </si>
-  <si>
-    <t>A221122221</t>
-  </si>
-  <si>
-    <t>B211112212</t>
-  </si>
-  <si>
-    <t>A212211122</t>
-  </si>
-  <si>
-    <t>B221121221</t>
-  </si>
-  <si>
-    <t>B121222112</t>
-  </si>
-  <si>
-    <t>A221212222</t>
-  </si>
-  <si>
-    <t>A111112121</t>
-  </si>
-  <si>
-    <t>B121222222</t>
-  </si>
-  <si>
-    <t>A122111121</t>
-  </si>
-  <si>
-    <t>A121211111</t>
-  </si>
-  <si>
-    <t>B212121222</t>
-  </si>
-  <si>
-    <t>B222122212</t>
-  </si>
-  <si>
-    <t>A112111122</t>
-  </si>
-  <si>
-    <t>A122112222</t>
-  </si>
-  <si>
-    <t>A222112112</t>
-  </si>
-  <si>
-    <t>B221211121</t>
-  </si>
-  <si>
-    <t>B121112122</t>
-  </si>
-  <si>
-    <t>B211222121</t>
-  </si>
-  <si>
-    <t>A221222122</t>
-  </si>
-  <si>
-    <t>A211221222</t>
-  </si>
-  <si>
-    <t>A121222211</t>
-  </si>
-  <si>
-    <t>B212211121</t>
-  </si>
-  <si>
-    <t>B122122211</t>
-  </si>
-  <si>
-    <t>A111212121</t>
-  </si>
-  <si>
-    <t>B121211112</t>
-  </si>
-  <si>
-    <t>A112222211</t>
-  </si>
-  <si>
-    <t>B222221122</t>
-  </si>
-  <si>
-    <t>B212122211</t>
-  </si>
-  <si>
-    <t>B121222111</t>
-  </si>
-  <si>
-    <t>B211221122</t>
-  </si>
-  <si>
-    <t>A222112121</t>
-  </si>
-  <si>
-    <t>A222111222</t>
-  </si>
-  <si>
-    <t>B111112121</t>
-  </si>
-  <si>
-    <t>A222211121</t>
-  </si>
-  <si>
-    <t>A111212111</t>
-  </si>
-  <si>
-    <t>A121212111</t>
-  </si>
-  <si>
-    <t>B111211212</t>
-  </si>
-  <si>
-    <t>A122222121</t>
-  </si>
-  <si>
-    <t>A122122212</t>
-  </si>
-  <si>
-    <t>B111212112</t>
-  </si>
-  <si>
-    <t>A221211211</t>
-  </si>
-  <si>
-    <t>B121221211</t>
-  </si>
-  <si>
-    <t>A112212221</t>
-  </si>
-  <si>
-    <t>B121222211</t>
-  </si>
-  <si>
-    <t>A212122111</t>
-  </si>
-  <si>
-    <t>B112222212</t>
-  </si>
-  <si>
-    <t>B121121111</t>
-  </si>
-  <si>
-    <t>A121121122</t>
-  </si>
-  <si>
-    <t>B121111112</t>
-  </si>
-  <si>
-    <t>A222111111</t>
-  </si>
-  <si>
-    <t>A121112122</t>
-  </si>
-  <si>
-    <t>B122111222</t>
-  </si>
-  <si>
-    <t>B121221122</t>
-  </si>
-  <si>
-    <t>B122222112</t>
-  </si>
-  <si>
-    <t>B221222121</t>
-  </si>
-  <si>
-    <t>B111111122</t>
-  </si>
-  <si>
-    <t>B121111211</t>
-  </si>
-  <si>
-    <t>B211212221</t>
-  </si>
-  <si>
-    <t>B111121222</t>
-  </si>
-  <si>
-    <t>B222121211</t>
-  </si>
-  <si>
-    <t>A211112212</t>
-  </si>
-  <si>
-    <t>B212222221</t>
-  </si>
-  <si>
-    <t>B212211111</t>
-  </si>
-  <si>
-    <t>A121122121</t>
-  </si>
-  <si>
-    <t>A211221112</t>
-  </si>
-  <si>
-    <t>B112111211</t>
-  </si>
-  <si>
-    <t>B221112122</t>
-  </si>
-  <si>
-    <t>A122122211</t>
-  </si>
-  <si>
-    <t>B122212211</t>
-  </si>
-  <si>
-    <t>B121222122</t>
-  </si>
-  <si>
-    <t>A212212122</t>
-  </si>
-  <si>
-    <t>B221212222</t>
-  </si>
-  <si>
-    <t>A121212121</t>
-  </si>
-  <si>
-    <t>A221122222</t>
-  </si>
-  <si>
-    <t>A121211122</t>
-  </si>
-  <si>
-    <t>A122211111</t>
-  </si>
-  <si>
-    <t>B222211211</t>
-  </si>
-  <si>
-    <t>B212121121</t>
-  </si>
-  <si>
-    <t>A211122122</t>
-  </si>
-  <si>
-    <t>B112121221</t>
-  </si>
-  <si>
-    <t>A112111221</t>
-  </si>
-  <si>
-    <t>A122111122</t>
-  </si>
-  <si>
-    <t>A122222111</t>
-  </si>
-  <si>
-    <t>B121122112</t>
-  </si>
-  <si>
-    <t>A222221212</t>
-  </si>
-  <si>
-    <t>B122112212</t>
-  </si>
-  <si>
-    <t>A221122121</t>
-  </si>
-  <si>
-    <t>B211221212</t>
-  </si>
-  <si>
-    <t>B211211112</t>
-  </si>
-  <si>
-    <t>B112111221</t>
-  </si>
-  <si>
-    <t>B121111212</t>
-  </si>
-  <si>
-    <t>B111111221</t>
-  </si>
-  <si>
-    <t>A122111212</t>
-  </si>
-  <si>
     <t>B211222222</t>
   </si>
   <si>
-    <t>A221212112</t>
-  </si>
-  <si>
-    <t>A111111122</t>
-  </si>
-  <si>
-    <t>B112222221</t>
-  </si>
-  <si>
-    <t>B112212122</t>
-  </si>
-  <si>
-    <t>A211121111</t>
-  </si>
-  <si>
-    <t>A121112221</t>
-  </si>
-  <si>
-    <t>B112211211</t>
-  </si>
-  <si>
-    <t>A222221221</t>
-  </si>
-  <si>
-    <t>A112221122</t>
-  </si>
-  <si>
-    <t>B121111221</t>
-  </si>
-  <si>
-    <t>A211212112</t>
-  </si>
-  <si>
-    <t>B222211121</t>
-  </si>
-  <si>
-    <t>A211222121</t>
-  </si>
-  <si>
-    <t>B121211212</t>
-  </si>
-  <si>
-    <t>B221212221</t>
-  </si>
-  <si>
-    <t>A111112112</t>
-  </si>
-  <si>
-    <t>A122111222</t>
-  </si>
-  <si>
-    <t>A111111222</t>
-  </si>
-  <si>
-    <t>A122211121</t>
-  </si>
-  <si>
-    <t>A122221211</t>
-  </si>
-  <si>
-    <t>A111111121</t>
+    <t>B112222122</t>
+  </si>
+  <si>
+    <t>A211212212</t>
+  </si>
+  <si>
+    <t>A222211212</t>
+  </si>
+  <si>
+    <t>B122212121</t>
+  </si>
+  <si>
+    <t>B211112112</t>
+  </si>
+  <si>
+    <t>B112111212</t>
+  </si>
+  <si>
+    <t>A121111211</t>
+  </si>
+  <si>
+    <t>B211111121</t>
+  </si>
+  <si>
+    <t>B121211222</t>
+  </si>
+  <si>
+    <t>B221111211</t>
+  </si>
+  <si>
+    <t>B121112222</t>
+  </si>
+  <si>
+    <t>A212121222</t>
+  </si>
+  <si>
+    <t>B221122222</t>
+  </si>
+  <si>
+    <t>A211111221</t>
+  </si>
+  <si>
+    <t>B122122122</t>
+  </si>
+  <si>
+    <t>B112212212</t>
+  </si>
+  <si>
+    <t>A111111111</t>
+  </si>
+  <si>
+    <t>A211122112</t>
+  </si>
+  <si>
+    <t>A212212221</t>
+  </si>
+  <si>
+    <t>B222122121</t>
+  </si>
+  <si>
+    <t>B222121111</t>
+  </si>
+  <si>
+    <t>B121222221</t>
+  </si>
+  <si>
+    <t>A211112111</t>
+  </si>
+  <si>
+    <t>A222212111</t>
+  </si>
+  <si>
+    <t>A112212211</t>
+  </si>
+  <si>
+    <t>B112121121</t>
+  </si>
+  <si>
+    <t>B222222222</t>
+  </si>
+  <si>
+    <t>A121222212</t>
+  </si>
+  <si>
+    <t>A221112222</t>
+  </si>
+  <si>
+    <t>A212122121</t>
+  </si>
+  <si>
+    <t>A212112222</t>
+  </si>
+  <si>
+    <t>A122211212</t>
+  </si>
+  <si>
+    <t>B211212222</t>
+  </si>
+  <si>
+    <t>A221121222</t>
+  </si>
+  <si>
+    <t>A122121221</t>
+  </si>
+  <si>
+    <t>A122111112</t>
+  </si>
+  <si>
+    <t>B221122112</t>
+  </si>
+  <si>
+    <t>B121111222</t>
+  </si>
+  <si>
+    <t>A211211112</t>
+  </si>
+  <si>
+    <t>B122122111</t>
+  </si>
+  <si>
+    <t>B112212121</t>
+  </si>
+  <si>
+    <t>A222211221</t>
+  </si>
+  <si>
+    <t>B212121221</t>
   </si>
   <si>
     <t>A221111221</t>
   </si>
   <si>
+    <t>A121122111</t>
+  </si>
+  <si>
+    <t>B122221222</t>
+  </si>
+  <si>
+    <t>B111122122</t>
+  </si>
+  <si>
+    <t>A122112221</t>
+  </si>
+  <si>
+    <t>A211111211</t>
+  </si>
+  <si>
+    <t>A112211111</t>
+  </si>
+  <si>
+    <t>B121212122</t>
+  </si>
+  <si>
+    <t>A211212221</t>
+  </si>
+  <si>
+    <t>B212111112</t>
+  </si>
+  <si>
+    <t>B221122212</t>
+  </si>
+  <si>
+    <t>B112111122</t>
+  </si>
+  <si>
+    <t>A112121112</t>
+  </si>
+  <si>
+    <t>B122122112</t>
+  </si>
+  <si>
+    <t>A221122211</t>
+  </si>
+  <si>
+    <t>B212122212</t>
+  </si>
+  <si>
+    <t>A122212212</t>
+  </si>
+  <si>
+    <t>A111122212</t>
+  </si>
+  <si>
+    <t>A221221222</t>
+  </si>
+  <si>
+    <t>A211222222</t>
+  </si>
+  <si>
+    <t>B112222112</t>
+  </si>
+  <si>
+    <t>B112111121</t>
+  </si>
+  <si>
+    <t>B222111111</t>
+  </si>
+  <si>
     <t>A112221221</t>
   </si>
   <si>
-    <t>A221112222</t>
-  </si>
-  <si>
-    <t>B211111121</t>
+    <t>B212222111</t>
+  </si>
+  <si>
+    <t>B121211111</t>
+  </si>
+  <si>
+    <t>A111211112</t>
+  </si>
+  <si>
+    <t>B122211122</t>
+  </si>
+  <si>
+    <t>A121122122</t>
+  </si>
+  <si>
+    <t>A221212211</t>
+  </si>
+  <si>
+    <t>A221112211</t>
+  </si>
+  <si>
+    <t>B222112211</t>
+  </si>
+  <si>
+    <t>B222122211</t>
   </si>
   <si>
     <t>A111121212</t>
   </si>
   <si>
+    <t>B122112111</t>
+  </si>
+  <si>
+    <t>B122121122</t>
+  </si>
+  <si>
+    <t>A212122212</t>
+  </si>
+  <si>
+    <t>B222212122</t>
+  </si>
+  <si>
+    <t>A112212112</t>
+  </si>
+  <si>
+    <t>A211121121</t>
+  </si>
+  <si>
+    <t>B222222122</t>
+  </si>
+  <si>
+    <t>B112121112</t>
+  </si>
+  <si>
+    <t>A121122221</t>
+  </si>
+  <si>
+    <t>A222121121</t>
+  </si>
+  <si>
+    <t>A211211221</t>
+  </si>
+  <si>
+    <t>A121221121</t>
+  </si>
+  <si>
+    <t>A212111211</t>
+  </si>
+  <si>
+    <t>A122221112</t>
+  </si>
+  <si>
+    <t>B122111122</t>
+  </si>
+  <si>
+    <t>B112121212</t>
+  </si>
+  <si>
+    <t>B211212111</t>
+  </si>
+  <si>
+    <t>A121212221</t>
+  </si>
+  <si>
+    <t>B122121112</t>
+  </si>
+  <si>
+    <t>B211122111</t>
+  </si>
+  <si>
+    <t>A212221111</t>
+  </si>
+  <si>
+    <t>A111122112</t>
+  </si>
+  <si>
+    <t>B222212111</t>
+  </si>
+  <si>
+    <t>A111212222</t>
+  </si>
+  <si>
+    <t>B112122122</t>
+  </si>
+  <si>
+    <t>B222221121</t>
+  </si>
+  <si>
+    <t>A211211212</t>
+  </si>
+  <si>
+    <t>B211121222</t>
+  </si>
+  <si>
     <t>B112122212</t>
   </si>
   <si>
-    <t>B222221121</t>
-  </si>
-  <si>
-    <t>A122112221</t>
-  </si>
-  <si>
-    <t>A211211212</t>
-  </si>
-  <si>
-    <t>B211122111</t>
-  </si>
-  <si>
-    <t>B122121112</t>
-  </si>
-  <si>
-    <t>B122212121</t>
+    <t>B211221121</t>
+  </si>
+  <si>
+    <t>A121222221</t>
+  </si>
+  <si>
+    <t>A221222112</t>
+  </si>
+  <si>
+    <t>A222111122</t>
+  </si>
+  <si>
+    <t>B212122122</t>
+  </si>
+  <si>
+    <t>B211112221</t>
+  </si>
+  <si>
+    <t>A212121221</t>
+  </si>
+  <si>
+    <t>A222121122</t>
+  </si>
+  <si>
+    <t>B121221121</t>
+  </si>
+  <si>
+    <t>A112221211</t>
+  </si>
+  <si>
+    <t>B212111122</t>
+  </si>
+  <si>
+    <t>B212212211</t>
+  </si>
+  <si>
+    <t>B121111111</t>
+  </si>
+  <si>
+    <t>B111212122</t>
+  </si>
+  <si>
+    <t>B211122212</t>
+  </si>
+  <si>
+    <t>A211111111</t>
+  </si>
+  <si>
+    <t>A211221122</t>
+  </si>
+  <si>
+    <t>A111112211</t>
+  </si>
+  <si>
+    <t>A222121212</t>
+  </si>
+  <si>
+    <t>B121212222</t>
+  </si>
+  <si>
+    <t>B111222221</t>
+  </si>
+  <si>
+    <t>B222211222</t>
+  </si>
+  <si>
+    <t>A222212221</t>
+  </si>
+  <si>
+    <t>B122212122</t>
+  </si>
+  <si>
+    <t>A222221122</t>
   </si>
   <si>
     <t>B212121211</t>
   </si>
   <si>
-    <t>A121212221</t>
-  </si>
-  <si>
-    <t>A111122212</t>
-  </si>
-  <si>
-    <t>B222222122</t>
-  </si>
-  <si>
-    <t>B112122122</t>
-  </si>
-  <si>
-    <t>A222121212</t>
-  </si>
-  <si>
-    <t>B112121212</t>
-  </si>
-  <si>
-    <t>B112121121</t>
-  </si>
-  <si>
-    <t>B211112221</t>
-  </si>
-  <si>
-    <t>B211122212</t>
-  </si>
-  <si>
-    <t>A111212222</t>
-  </si>
-  <si>
-    <t>B122122122</t>
-  </si>
-  <si>
-    <t>B212122212</t>
-  </si>
-  <si>
-    <t>B222112211</t>
-  </si>
-  <si>
-    <t>B211212111</t>
-  </si>
-  <si>
-    <t>A221221222</t>
-  </si>
-  <si>
-    <t>B111222221</t>
-  </si>
-  <si>
-    <t>A112212112</t>
-  </si>
-  <si>
-    <t>A222211221</t>
-  </si>
-  <si>
-    <t>B122112111</t>
-  </si>
-  <si>
-    <t>B212121221</t>
-  </si>
-  <si>
-    <t>B222122211</t>
-  </si>
-  <si>
-    <t>A212122212</t>
-  </si>
-  <si>
-    <t>A211112111</t>
-  </si>
-  <si>
-    <t>A122212212</t>
-  </si>
-  <si>
-    <t>A211121121</t>
-  </si>
-  <si>
-    <t>A222221122</t>
-  </si>
-  <si>
-    <t>B211112112</t>
-  </si>
-  <si>
-    <t>A211122112</t>
-  </si>
-  <si>
-    <t>B221122112</t>
-  </si>
-  <si>
-    <t>A121122122</t>
-  </si>
-  <si>
-    <t>B121222221</t>
-  </si>
-  <si>
-    <t>A211212221</t>
-  </si>
-  <si>
-    <t>A122221112</t>
-  </si>
-  <si>
-    <t>A222121121</t>
-  </si>
-  <si>
-    <t>A121122111</t>
-  </si>
-  <si>
-    <t>A211221122</t>
-  </si>
-  <si>
-    <t>B112222112</t>
-  </si>
-  <si>
-    <t>A211111111</t>
-  </si>
-  <si>
-    <t>B121111222</t>
-  </si>
-  <si>
-    <t>A221122211</t>
-  </si>
-  <si>
-    <t>A112212211</t>
-  </si>
-  <si>
-    <t>B112111121</t>
-  </si>
-  <si>
-    <t>B222122121</t>
-  </si>
-  <si>
-    <t>A221121222</t>
-  </si>
-  <si>
-    <t>B211121222</t>
-  </si>
-  <si>
-    <t>A222121122</t>
-  </si>
-  <si>
-    <t>B121212222</t>
-  </si>
-  <si>
-    <t>B112212121</t>
-  </si>
-  <si>
-    <t>A222212111</t>
-  </si>
-  <si>
-    <t>B222212122</t>
-  </si>
-  <si>
-    <t>A221222112</t>
-  </si>
-  <si>
-    <t>B221122222</t>
-  </si>
-  <si>
-    <t>B121111111</t>
-  </si>
-  <si>
-    <t>A212121221</t>
-  </si>
-  <si>
-    <t>A121122221</t>
-  </si>
-  <si>
-    <t>A222211212</t>
-  </si>
-  <si>
-    <t>A111122112</t>
-  </si>
-  <si>
-    <t>B222111111</t>
-  </si>
-  <si>
-    <t>B222211222</t>
-  </si>
-  <si>
-    <t>A221112211</t>
-  </si>
-  <si>
-    <t>A212221111</t>
-  </si>
-  <si>
-    <t>A121222212</t>
-  </si>
-  <si>
-    <t>A122121221</t>
-  </si>
-  <si>
-    <t>A211111211</t>
-  </si>
-  <si>
     <t>B121211121</t>
   </si>
   <si>
-    <t>B212111122</t>
-  </si>
-  <si>
-    <t>B112111122</t>
-  </si>
-  <si>
-    <t>B221111211</t>
-  </si>
-  <si>
-    <t>B121212122</t>
-  </si>
-  <si>
-    <t>B112121112</t>
-  </si>
-  <si>
-    <t>A112121112</t>
-  </si>
-  <si>
-    <t>B212222111</t>
-  </si>
-  <si>
-    <t>A211222222</t>
-  </si>
-  <si>
-    <t>A111111111</t>
-  </si>
-  <si>
-    <t>A121221121</t>
-  </si>
-  <si>
-    <t>B122122111</t>
-  </si>
-  <si>
-    <t>A212121222</t>
-  </si>
-  <si>
-    <t>B221122212</t>
-  </si>
-  <si>
-    <t>A122211212</t>
-  </si>
-  <si>
-    <t>A221212211</t>
-  </si>
-  <si>
-    <t>B222212111</t>
-  </si>
-  <si>
-    <t>B222222222</t>
-  </si>
-  <si>
-    <t>B122211122</t>
-  </si>
-  <si>
-    <t>A121222221</t>
-  </si>
-  <si>
-    <t>B122121122</t>
-  </si>
-  <si>
-    <t>A212112222</t>
-  </si>
-  <si>
-    <t>B122122112</t>
-  </si>
-  <si>
-    <t>A222111122</t>
-  </si>
-  <si>
-    <t>B121221121</t>
-  </si>
-  <si>
-    <t>B112222122</t>
-  </si>
-  <si>
-    <t>B121211222</t>
-  </si>
-  <si>
-    <t>B222121111</t>
-  </si>
-  <si>
-    <t>A122111112</t>
-  </si>
-  <si>
-    <t>B112212212</t>
-  </si>
-  <si>
-    <t>B122221222</t>
-  </si>
-  <si>
-    <t>B121211111</t>
-  </si>
-  <si>
-    <t>A112211111</t>
-  </si>
-  <si>
-    <t>A211211221</t>
-  </si>
-  <si>
-    <t>B212122122</t>
-  </si>
-  <si>
-    <t>A222212221</t>
-  </si>
-  <si>
-    <t>A211111221</t>
-  </si>
-  <si>
-    <t>A111211112</t>
-  </si>
-  <si>
-    <t>A211212212</t>
-  </si>
-  <si>
-    <t>B122111122</t>
-  </si>
-  <si>
-    <t>B211212222</t>
-  </si>
-  <si>
-    <t>B121112222</t>
-  </si>
-  <si>
-    <t>A212122121</t>
-  </si>
-  <si>
-    <t>A211211112</t>
-  </si>
-  <si>
-    <t>B212111112</t>
-  </si>
-  <si>
-    <t>B112111212</t>
-  </si>
-  <si>
-    <t>B111122122</t>
-  </si>
-  <si>
-    <t>A111112211</t>
-  </si>
-  <si>
-    <t>B122212122</t>
-  </si>
-  <si>
-    <t>A212111211</t>
-  </si>
-  <si>
-    <t>A121111211</t>
-  </si>
-  <si>
-    <t>A112221211</t>
-  </si>
-  <si>
-    <t>A212212221</t>
-  </si>
-  <si>
-    <t>B111212122</t>
-  </si>
-  <si>
-    <t>B211221121</t>
-  </si>
-  <si>
-    <t>B212212211</t>
+    <t>B222121212</t>
+  </si>
+  <si>
+    <t>B221122211</t>
+  </si>
+  <si>
+    <t>B111111211</t>
+  </si>
+  <si>
+    <t>B221121222</t>
+  </si>
+  <si>
+    <t>A212122122</t>
+  </si>
+  <si>
+    <t>B222121122</t>
+  </si>
+  <si>
+    <t>A211211122</t>
+  </si>
+  <si>
+    <t>A111121121</t>
+  </si>
+  <si>
+    <t>A211222122</t>
+  </si>
+  <si>
+    <t>B222211112</t>
+  </si>
+  <si>
+    <t>A121212112</t>
+  </si>
+  <si>
+    <t>B122221111</t>
+  </si>
+  <si>
+    <t>A112222112</t>
+  </si>
+  <si>
+    <t>A212222122</t>
+  </si>
+  <si>
+    <t>B122221112</t>
+  </si>
+  <si>
+    <t>A112211121</t>
+  </si>
+  <si>
+    <t>B222121221</t>
+  </si>
+  <si>
+    <t>B211122121</t>
+  </si>
+  <si>
+    <t>B112111111</t>
+  </si>
+  <si>
+    <t>A111211122</t>
+  </si>
+  <si>
+    <t>B211112121</t>
+  </si>
+  <si>
+    <t>B222112111</t>
+  </si>
+  <si>
+    <t>A211222212</t>
+  </si>
+  <si>
+    <t>A211212211</t>
+  </si>
+  <si>
+    <t>B122111111</t>
+  </si>
+  <si>
+    <t>B112221212</t>
+  </si>
+  <si>
+    <t>A221121211</t>
+  </si>
+  <si>
+    <t>B112211221</t>
+  </si>
+  <si>
+    <t>A121112111</t>
+  </si>
+  <si>
+    <t>A121222112</t>
+  </si>
+  <si>
+    <t>B211111111</t>
+  </si>
+  <si>
+    <t>B111221221</t>
+  </si>
+  <si>
+    <t>A122212122</t>
+  </si>
+  <si>
+    <t>A222122121</t>
+  </si>
+  <si>
+    <t>B212211221</t>
+  </si>
+  <si>
+    <t>B211212211</t>
+  </si>
+  <si>
+    <t>B212111211</t>
+  </si>
+  <si>
+    <t>B212211122</t>
+  </si>
+  <si>
+    <t>A212211211</t>
+  </si>
+  <si>
+    <t>A122222222</t>
+  </si>
+  <si>
+    <t>B222111221</t>
+  </si>
+  <si>
+    <t>B112211112</t>
+  </si>
+  <si>
+    <t>A121112121</t>
+  </si>
+  <si>
+    <t>A121221221</t>
+  </si>
+  <si>
+    <t>A112121211</t>
+  </si>
+  <si>
+    <t>B112121122</t>
+  </si>
+  <si>
+    <t>B221222211</t>
+  </si>
+  <si>
+    <t>B222111112</t>
+  </si>
+  <si>
+    <t>A122212222</t>
+  </si>
+  <si>
+    <t>A212222121</t>
+  </si>
+  <si>
+    <t>B221211122</t>
+  </si>
+  <si>
+    <t>A111221122</t>
+  </si>
+  <si>
+    <t>A122122111</t>
+  </si>
+  <si>
+    <t>A211121212</t>
+  </si>
+  <si>
+    <t>B111222211</t>
+  </si>
+  <si>
+    <t>B111212121</t>
+  </si>
+  <si>
+    <t>B221112222</t>
+  </si>
+  <si>
+    <t>B112211111</t>
+  </si>
+  <si>
+    <t>A221111122</t>
+  </si>
+  <si>
+    <t>A222111212</t>
+  </si>
+  <si>
+    <t>B111221122</t>
+  </si>
+  <si>
+    <t>B222121121</t>
+  </si>
+  <si>
+    <t>A221111111</t>
+  </si>
+  <si>
+    <t>B222112112</t>
+  </si>
+  <si>
+    <t>B212111222</t>
+  </si>
+  <si>
+    <t>B112211122</t>
+  </si>
+  <si>
+    <t>B221111121</t>
+  </si>
+  <si>
+    <t>A221212111</t>
+  </si>
+  <si>
+    <t>A112121222</t>
+  </si>
+  <si>
+    <t>A222122222</t>
+  </si>
+  <si>
+    <t>A122221111</t>
+  </si>
+  <si>
+    <t>B221212121</t>
+  </si>
+  <si>
+    <t>B222212212</t>
+  </si>
+  <si>
+    <t>B112112121</t>
+  </si>
+  <si>
+    <t>A122112122</t>
+  </si>
+  <si>
+    <t>A122211122</t>
+  </si>
+  <si>
+    <t>A122221121</t>
+  </si>
+  <si>
+    <t>A122212121</t>
+  </si>
+  <si>
+    <t>B112121222</t>
+  </si>
+  <si>
+    <t>B111122212</t>
+  </si>
+  <si>
+    <t>A222222222</t>
+  </si>
+  <si>
+    <t>A111212221</t>
+  </si>
+  <si>
+    <t>B212221121</t>
+  </si>
+  <si>
+    <t>B212112112</t>
+  </si>
+  <si>
+    <t>B212222112</t>
+  </si>
+  <si>
+    <t>A112111121</t>
+  </si>
+  <si>
+    <t>A211222111</t>
+  </si>
+  <si>
+    <t>A112112212</t>
+  </si>
+  <si>
+    <t>B111222112</t>
+  </si>
+  <si>
+    <t>A111211121</t>
+  </si>
+  <si>
+    <t>B121212112</t>
+  </si>
+  <si>
+    <t>B112222111</t>
+  </si>
+  <si>
+    <t>A222221222</t>
+  </si>
+  <si>
+    <t>B122222122</t>
+  </si>
+  <si>
+    <t>A211121211</t>
+  </si>
+  <si>
+    <t>B211211122</t>
+  </si>
+  <si>
+    <t>A122122112</t>
+  </si>
+  <si>
+    <t>A112112111</t>
+  </si>
+  <si>
+    <t>B222121112</t>
+  </si>
+  <si>
+    <t>B222212211</t>
+  </si>
+  <si>
+    <t>A122111111</t>
+  </si>
+  <si>
+    <t>B221212112</t>
+  </si>
+  <si>
+    <t>B222112212</t>
+  </si>
+  <si>
+    <t>A221212221</t>
+  </si>
+  <si>
+    <t>B111212221</t>
+  </si>
+  <si>
+    <t>A211212121</t>
+  </si>
+  <si>
+    <t>B112121211</t>
+  </si>
+  <si>
+    <t>A211122121</t>
+  </si>
+  <si>
+    <t>A211122212</t>
   </si>
   <si>
     <t>A112212212</t>
   </si>
   <si>
-    <t>B112222111</t>
-  </si>
-  <si>
-    <t>B222212212</t>
-  </si>
-  <si>
-    <t>B111222211</t>
-  </si>
-  <si>
-    <t>A221121211</t>
-  </si>
-  <si>
-    <t>A122221111</t>
-  </si>
-  <si>
-    <t>A211212211</t>
-  </si>
-  <si>
-    <t>B222121112</t>
-  </si>
-  <si>
-    <t>B121212112</t>
-  </si>
-  <si>
-    <t>A212222121</t>
-  </si>
-  <si>
-    <t>A211122212</t>
-  </si>
-  <si>
-    <t>B212111222</t>
-  </si>
-  <si>
-    <t>B221212112</t>
-  </si>
-  <si>
-    <t>B221121222</t>
-  </si>
-  <si>
-    <t>A122122111</t>
-  </si>
-  <si>
-    <t>B212211122</t>
-  </si>
-  <si>
-    <t>B111222112</t>
-  </si>
-  <si>
-    <t>A122122112</t>
-  </si>
-  <si>
-    <t>B221212121</t>
-  </si>
-  <si>
-    <t>A221212221</t>
-  </si>
-  <si>
-    <t>B221111121</t>
-  </si>
-  <si>
-    <t>B112112121</t>
-  </si>
-  <si>
-    <t>B211122121</t>
-  </si>
-  <si>
-    <t>B111221221</t>
-  </si>
-  <si>
-    <t>A222221222</t>
-  </si>
-  <si>
-    <t>A112222112</t>
-  </si>
-  <si>
-    <t>B111111211</t>
-  </si>
-  <si>
-    <t>A121222112</t>
-  </si>
-  <si>
-    <t>A212211211</t>
-  </si>
-  <si>
-    <t>A122111111</t>
-  </si>
-  <si>
-    <t>A211212121</t>
-  </si>
-  <si>
-    <t>A111211122</t>
-  </si>
-  <si>
-    <t>A111211121</t>
-  </si>
-  <si>
-    <t>B112111111</t>
-  </si>
-  <si>
-    <t>A112121222</t>
-  </si>
-  <si>
-    <t>B222211112</t>
-  </si>
-  <si>
-    <t>B112211221</t>
-  </si>
-  <si>
-    <t>B222111221</t>
-  </si>
-  <si>
-    <t>B111212221</t>
-  </si>
-  <si>
-    <t>A211222212</t>
-  </si>
-  <si>
-    <t>B222121221</t>
-  </si>
-  <si>
-    <t>A111121121</t>
-  </si>
-  <si>
-    <t>A211121211</t>
-  </si>
-  <si>
-    <t>B112121222</t>
-  </si>
-  <si>
-    <t>A122222222</t>
-  </si>
-  <si>
-    <t>A112112212</t>
-  </si>
-  <si>
-    <t>A122112122</t>
-  </si>
-  <si>
-    <t>B112211112</t>
-  </si>
-  <si>
-    <t>B222121121</t>
-  </si>
-  <si>
-    <t>B221211122</t>
-  </si>
-  <si>
-    <t>B222212211</t>
-  </si>
-  <si>
-    <t>A121112111</t>
-  </si>
-  <si>
-    <t>A221111111</t>
-  </si>
-  <si>
-    <t>A222111212</t>
-  </si>
-  <si>
-    <t>A121112121</t>
-  </si>
-  <si>
-    <t>B212111211</t>
-  </si>
-  <si>
-    <t>B122221111</t>
-  </si>
-  <si>
-    <t>A122221121</t>
-  </si>
-  <si>
-    <t>B222121122</t>
-  </si>
-  <si>
-    <t>A211122121</t>
-  </si>
-  <si>
-    <t>B221122211</t>
-  </si>
-  <si>
-    <t>A212222122</t>
-  </si>
-  <si>
-    <t>A112112111</t>
-  </si>
-  <si>
-    <t>B122221112</t>
-  </si>
-  <si>
-    <t>B211211122</t>
-  </si>
-  <si>
-    <t>B222112212</t>
-  </si>
-  <si>
-    <t>A112121211</t>
-  </si>
-  <si>
-    <t>A121212112</t>
-  </si>
-  <si>
-    <t>B221112222</t>
-  </si>
-  <si>
-    <t>A211222122</t>
-  </si>
-  <si>
-    <t>B112121122</t>
-  </si>
-  <si>
-    <t>A221212111</t>
+    <t>B221221222</t>
   </si>
   <si>
     <t>A221111212</t>
   </si>
   <si>
-    <t>B112221212</t>
-  </si>
-  <si>
-    <t>A222122222</t>
-  </si>
-  <si>
-    <t>B111122212</t>
-  </si>
-  <si>
-    <t>A221111122</t>
-  </si>
-  <si>
-    <t>A211121212</t>
-  </si>
-  <si>
-    <t>B122111111</t>
-  </si>
-  <si>
-    <t>B212112112</t>
-  </si>
-  <si>
-    <t>B211111111</t>
-  </si>
-  <si>
-    <t>A112211121</t>
-  </si>
-  <si>
-    <t>A111221122</t>
-  </si>
-  <si>
-    <t>A212122122</t>
-  </si>
-  <si>
-    <t>B212222112</t>
-  </si>
-  <si>
-    <t>B222121212</t>
-  </si>
-  <si>
-    <t>A112111121</t>
-  </si>
-  <si>
-    <t>B221221222</t>
-  </si>
-  <si>
-    <t>B211212211</t>
-  </si>
-  <si>
-    <t>B212221121</t>
-  </si>
-  <si>
-    <t>A111212221</t>
-  </si>
-  <si>
-    <t>B112211111</t>
-  </si>
-  <si>
-    <t>A222122121</t>
-  </si>
-  <si>
-    <t>B212211221</t>
-  </si>
-  <si>
-    <t>A121221221</t>
-  </si>
-  <si>
-    <t>A222222222</t>
-  </si>
-  <si>
-    <t>A122212121</t>
-  </si>
-  <si>
     <t>B111221112</t>
   </si>
   <si>
-    <t>B111221122</t>
-  </si>
-  <si>
-    <t>A122211122</t>
-  </si>
-  <si>
-    <t>B111212121</t>
-  </si>
-  <si>
-    <t>A122212122</t>
-  </si>
-  <si>
-    <t>B122222122</t>
-  </si>
-  <si>
-    <t>A211222111</t>
-  </si>
-  <si>
-    <t>B222111112</t>
-  </si>
-  <si>
-    <t>B112211122</t>
-  </si>
-  <si>
-    <t>A122212222</t>
-  </si>
-  <si>
-    <t>B211112121</t>
-  </si>
-  <si>
-    <t>B222112112</t>
-  </si>
-  <si>
-    <t>A211211122</t>
-  </si>
-  <si>
-    <t>B221222211</t>
-  </si>
-  <si>
-    <t>B112121211</t>
-  </si>
-  <si>
-    <t>B222112111</t>
+    <t>B111111212</t>
+  </si>
+  <si>
+    <t>A122212112</t>
+  </si>
+  <si>
+    <t>B111121212</t>
+  </si>
+  <si>
+    <t>B222212112</t>
+  </si>
+  <si>
+    <t>B221221211</t>
+  </si>
+  <si>
+    <t>A212221121</t>
+  </si>
+  <si>
+    <t>B122212212</t>
+  </si>
+  <si>
+    <t>A122121212</t>
+  </si>
+  <si>
+    <t>A212222212</t>
+  </si>
+  <si>
+    <t>B122121211</t>
+  </si>
+  <si>
+    <t>B211122112</t>
+  </si>
+  <si>
+    <t>B212112222</t>
+  </si>
+  <si>
+    <t>A212221112</t>
+  </si>
+  <si>
+    <t>A221212212</t>
+  </si>
+  <si>
+    <t>B112211222</t>
+  </si>
+  <si>
+    <t>B111222212</t>
+  </si>
+  <si>
+    <t>B121122222</t>
+  </si>
+  <si>
+    <t>A112222122</t>
+  </si>
+  <si>
+    <t>A212111212</t>
+  </si>
+  <si>
+    <t>B121112211</t>
+  </si>
+  <si>
+    <t>A121221212</t>
+  </si>
+  <si>
+    <t>B121122111</t>
+  </si>
+  <si>
+    <t>A221211122</t>
+  </si>
+  <si>
+    <t>A112222111</t>
+  </si>
+  <si>
+    <t>A211121122</t>
+  </si>
+  <si>
+    <t>A121122211</t>
+  </si>
+  <si>
+    <t>A122112111</t>
+  </si>
+  <si>
+    <t>B122122222</t>
+  </si>
+  <si>
+    <t>B112122221</t>
+  </si>
+  <si>
+    <t>B121112121</t>
+  </si>
+  <si>
+    <t>A122212111</t>
+  </si>
+  <si>
+    <t>A222211211</t>
+  </si>
+  <si>
+    <t>A222212222</t>
+  </si>
+  <si>
+    <t>A222121211</t>
+  </si>
+  <si>
+    <t>B112111222</t>
+  </si>
+  <si>
+    <t>A221111211</t>
+  </si>
+  <si>
+    <t>B222221221</t>
+  </si>
+  <si>
+    <t>A111121111</t>
+  </si>
+  <si>
+    <t>B121222212</t>
+  </si>
+  <si>
+    <t>A212122221</t>
+  </si>
+  <si>
+    <t>A221222221</t>
+  </si>
+  <si>
+    <t>B122212222</t>
+  </si>
+  <si>
+    <t>B121212221</t>
+  </si>
+  <si>
+    <t>B121111122</t>
+  </si>
+  <si>
+    <t>A112211211</t>
+  </si>
+  <si>
+    <t>B221121122</t>
+  </si>
+  <si>
+    <t>B121221111</t>
+  </si>
+  <si>
+    <t>A211122221</t>
+  </si>
+  <si>
+    <t>A112222121</t>
+  </si>
+  <si>
+    <t>B122222121</t>
+  </si>
+  <si>
+    <t>A211221121</t>
+  </si>
+  <si>
+    <t>B222111211</t>
+  </si>
+  <si>
+    <t>B122221221</t>
+  </si>
+  <si>
+    <t>A112112211</t>
+  </si>
+  <si>
+    <t>A211222211</t>
+  </si>
+  <si>
+    <t>A111211212</t>
+  </si>
+  <si>
+    <t>A121222222</t>
+  </si>
+  <si>
+    <t>B111212222</t>
+  </si>
+  <si>
+    <t>B221212212</t>
+  </si>
+  <si>
+    <t>A211211121</t>
+  </si>
+  <si>
+    <t>B211222122</t>
+  </si>
+  <si>
+    <t>A121111111</t>
+  </si>
+  <si>
+    <t>B221221221</t>
+  </si>
+  <si>
+    <t>A122222122</t>
+  </si>
+  <si>
+    <t>A112221121</t>
+  </si>
+  <si>
+    <t>A122221212</t>
+  </si>
+  <si>
+    <t>A211122111</t>
+  </si>
+  <si>
+    <t>A221112221</t>
+  </si>
+  <si>
+    <t>B212112111</t>
+  </si>
+  <si>
+    <t>A211112122</t>
+  </si>
+  <si>
+    <t>B112111112</t>
+  </si>
+  <si>
+    <t>A212121122</t>
+  </si>
+  <si>
+    <t>A121211222</t>
+  </si>
+  <si>
+    <t>A212112121</t>
+  </si>
+  <si>
+    <t>A111112111</t>
   </si>
   <si>
     <t>A222221111</t>
   </si>
   <si>
-    <t>A221111211</t>
-  </si>
-  <si>
-    <t>B111121212</t>
-  </si>
-  <si>
-    <t>B121221111</t>
-  </si>
-  <si>
-    <t>B211222122</t>
-  </si>
-  <si>
-    <t>A112222121</t>
+    <t>A112121111</t>
+  </si>
+  <si>
+    <t>B121212111</t>
+  </si>
+  <si>
+    <t>A222111121</t>
   </si>
   <si>
     <t>A122121121</t>
   </si>
   <si>
-    <t>B121111122</t>
-  </si>
-  <si>
-    <t>A111112111</t>
-  </si>
-  <si>
-    <t>A212222212</t>
-  </si>
-  <si>
-    <t>B121222212</t>
-  </si>
-  <si>
-    <t>B121212111</t>
-  </si>
-  <si>
-    <t>A212221121</t>
-  </si>
-  <si>
-    <t>B112122221</t>
-  </si>
-  <si>
-    <t>A211221121</t>
-  </si>
-  <si>
-    <t>A222111121</t>
-  </si>
-  <si>
-    <t>B122212222</t>
-  </si>
-  <si>
-    <t>B112111112</t>
-  </si>
-  <si>
-    <t>A112112211</t>
-  </si>
-  <si>
-    <t>A212112121</t>
-  </si>
-  <si>
-    <t>B221121122</t>
-  </si>
-  <si>
-    <t>B212112111</t>
-  </si>
-  <si>
-    <t>A221211122</t>
-  </si>
-  <si>
-    <t>B121112121</t>
-  </si>
-  <si>
-    <t>A211112122</t>
-  </si>
-  <si>
-    <t>A121122211</t>
-  </si>
-  <si>
-    <t>B122222121</t>
-  </si>
-  <si>
-    <t>A221212212</t>
-  </si>
-  <si>
-    <t>B112111222</t>
-  </si>
-  <si>
-    <t>A212111212</t>
-  </si>
-  <si>
-    <t>A111211212</t>
-  </si>
-  <si>
-    <t>B121112211</t>
-  </si>
-  <si>
-    <t>A122221212</t>
-  </si>
-  <si>
-    <t>A211222211</t>
-  </si>
-  <si>
-    <t>A112211211</t>
-  </si>
-  <si>
-    <t>A221222221</t>
-  </si>
-  <si>
-    <t>A122222122</t>
-  </si>
-  <si>
-    <t>B222212112</t>
-  </si>
-  <si>
-    <t>A112222122</t>
-  </si>
-  <si>
-    <t>A121211222</t>
-  </si>
-  <si>
-    <t>B122122222</t>
-  </si>
-  <si>
-    <t>A122212111</t>
-  </si>
-  <si>
-    <t>A212221112</t>
-  </si>
-  <si>
-    <t>A111121111</t>
-  </si>
-  <si>
-    <t>A222121211</t>
-  </si>
-  <si>
-    <t>A122121212</t>
-  </si>
-  <si>
-    <t>A122212112</t>
-  </si>
-  <si>
-    <t>B121212221</t>
-  </si>
-  <si>
-    <t>B121122111</t>
-  </si>
-  <si>
-    <t>B111212222</t>
-  </si>
-  <si>
-    <t>A211121122</t>
-  </si>
-  <si>
-    <t>A221112221</t>
-  </si>
-  <si>
-    <t>A112221121</t>
-  </si>
-  <si>
-    <t>A121111111</t>
-  </si>
-  <si>
-    <t>A121221212</t>
-  </si>
-  <si>
-    <t>B212112222</t>
-  </si>
-  <si>
-    <t>A211122221</t>
-  </si>
-  <si>
-    <t>B121122222</t>
-  </si>
-  <si>
-    <t>B222221221</t>
-  </si>
-  <si>
-    <t>B112211222</t>
-  </si>
-  <si>
-    <t>B222111211</t>
-  </si>
-  <si>
-    <t>B111222212</t>
-  </si>
-  <si>
-    <t>A222212222</t>
-  </si>
-  <si>
-    <t>B211122112</t>
-  </si>
-  <si>
-    <t>B122212212</t>
-  </si>
-  <si>
-    <t>A121222222</t>
-  </si>
-  <si>
-    <t>B221221221</t>
-  </si>
-  <si>
-    <t>A112222111</t>
-  </si>
-  <si>
-    <t>B122121211</t>
-  </si>
-  <si>
-    <t>B221212212</t>
-  </si>
-  <si>
-    <t>B221221211</t>
-  </si>
-  <si>
-    <t>A212121122</t>
-  </si>
-  <si>
-    <t>A211211121</t>
-  </si>
-  <si>
-    <t>B111111212</t>
-  </si>
-  <si>
-    <t>A112121111</t>
-  </si>
-  <si>
-    <t>B122221221</t>
-  </si>
-  <si>
-    <t>A212122221</t>
-  </si>
-  <si>
-    <t>A211122111</t>
-  </si>
-  <si>
-    <t>A122112111</t>
+    <t>B111122111</t>
+  </si>
+  <si>
+    <t>B112122112</t>
+  </si>
+  <si>
+    <t>B121121212</t>
+  </si>
+  <si>
+    <t>A221211121</t>
+  </si>
+  <si>
+    <t>A221122111</t>
+  </si>
+  <si>
+    <t>B111122112</t>
+  </si>
+  <si>
+    <t>B122211111</t>
+  </si>
+  <si>
+    <t>A222212122</t>
+  </si>
+  <si>
+    <t>A221211222</t>
+  </si>
+  <si>
+    <t>B221211212</t>
+  </si>
+  <si>
+    <t>A112121221</t>
+  </si>
+  <si>
+    <t>B221211221</t>
+  </si>
+  <si>
+    <t>A121221211</t>
+  </si>
+  <si>
+    <t>B112221122</t>
+  </si>
+  <si>
+    <t>B122122121</t>
+  </si>
+  <si>
+    <t>B111211222</t>
+  </si>
+  <si>
+    <t>A122222221</t>
   </si>
   <si>
     <t>A121222122</t>
   </si>
   <si>
-    <t>B121121212</t>
-  </si>
-  <si>
-    <t>A222211211</t>
-  </si>
-  <si>
-    <t>A221211121</t>
-  </si>
-  <si>
-    <t>B111122111</t>
+    <t>A121222111</t>
+  </si>
+  <si>
+    <t>B221111111</t>
+  </si>
+  <si>
+    <t>A211122211</t>
+  </si>
+  <si>
+    <t>B121212211</t>
+  </si>
+  <si>
+    <t>B111111222</t>
+  </si>
+  <si>
+    <t>B121122122</t>
+  </si>
+  <si>
+    <t>B111212111</t>
+  </si>
+  <si>
+    <t>B222111222</t>
+  </si>
+  <si>
+    <t>A111211211</t>
+  </si>
+  <si>
+    <t>A121221222</t>
+  </si>
+  <si>
+    <t>A211221212</t>
   </si>
   <si>
     <t>B211121112</t>
   </si>
   <si>
-    <t>B112122112</t>
+    <t>B212221122</t>
+  </si>
+  <si>
+    <t>B122221212</t>
+  </si>
+  <si>
+    <t>A221222222</t>
+  </si>
+  <si>
+    <t>A121112222</t>
   </si>
   <si>
     <t>B122112122</t>
   </si>
   <si>
-    <t>B121212211</t>
-  </si>
-  <si>
-    <t>B122221212</t>
-  </si>
-  <si>
-    <t>A111211211</t>
-  </si>
-  <si>
-    <t>A112121221</t>
-  </si>
-  <si>
-    <t>B122122121</t>
-  </si>
-  <si>
-    <t>A121222111</t>
-  </si>
-  <si>
-    <t>A211221212</t>
-  </si>
-  <si>
-    <t>B111211222</t>
-  </si>
-  <si>
-    <t>B111111222</t>
-  </si>
-  <si>
-    <t>A122222221</t>
-  </si>
-  <si>
-    <t>B221211212</t>
-  </si>
-  <si>
-    <t>B212221122</t>
-  </si>
-  <si>
-    <t>A221211222</t>
-  </si>
-  <si>
-    <t>B121122122</t>
-  </si>
-  <si>
-    <t>B222111222</t>
-  </si>
-  <si>
-    <t>A121221211</t>
-  </si>
-  <si>
-    <t>A121112222</t>
-  </si>
-  <si>
-    <t>A222212122</t>
-  </si>
-  <si>
-    <t>A221222222</t>
-  </si>
-  <si>
-    <t>A221122111</t>
-  </si>
-  <si>
-    <t>B111122112</t>
-  </si>
-  <si>
-    <t>B221211221</t>
-  </si>
-  <si>
-    <t>B112221122</t>
-  </si>
-  <si>
-    <t>A121221222</t>
-  </si>
-  <si>
-    <t>B122211111</t>
-  </si>
-  <si>
-    <t>B111212111</t>
-  </si>
-  <si>
-    <t>A211122211</t>
-  </si>
-  <si>
-    <t>B221111111</t>
+    <t>B211121121</t>
+  </si>
+  <si>
+    <t>B221222221</t>
+  </si>
+  <si>
+    <t>B222221111</t>
+  </si>
+  <si>
+    <t>A112211212</t>
+  </si>
+  <si>
+    <t>A111222112</t>
+  </si>
+  <si>
+    <t>B221211222</t>
   </si>
   <si>
     <t>A221221122</t>
   </si>
   <si>
+    <t>B122122212</t>
+  </si>
+  <si>
+    <t>A221121111</t>
+  </si>
+  <si>
     <t>A122122221</t>
   </si>
   <si>
-    <t>A112211212</t>
-  </si>
-  <si>
-    <t>B221211222</t>
-  </si>
-  <si>
-    <t>B211121121</t>
-  </si>
-  <si>
-    <t>A111222112</t>
-  </si>
-  <si>
-    <t>B221222221</t>
-  </si>
-  <si>
-    <t>A221121111</t>
+    <t>B122121111</t>
   </si>
   <si>
     <t>B221111222</t>
@@ -3073,22 +3082,13 @@
     <t>B212121212</t>
   </si>
   <si>
-    <t>B122121111</t>
-  </si>
-  <si>
-    <t>B122122212</t>
-  </si>
-  <si>
-    <t>B222221111</t>
+    <t>B111122221</t>
   </si>
   <si>
     <t>B222211221</t>
   </si>
   <si>
     <t>B211211222</t>
-  </si>
-  <si>
-    <t>B111122221</t>
   </si>
 </sst>
 </file>
@@ -3600,7 +3600,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -11232,7 +11232,7 @@
         <v>973</v>
       </c>
       <c r="B973" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="974" spans="1:2">
